--- a/InstallOptions/Localization/CustomLocalization-RU/Localization/RogueTech/RU/Solaris7RT/LocalizationDef.xlsx
+++ b/InstallOptions/Localization/CustomLocalization-RU/Localization/RogueTech/RU/Solaris7RT/LocalizationDef.xlsx
@@ -13365,6 +13365,9 @@
     <t>"A customised Behemoth model A of uncertain origin outfitted in rare LosTech, this tank is the property of the Solaris Tank Jockey Scott Mayur. The main guns are replaced with vintage LB-10X Auto-cannons, 4 Streak SRM-2's are mounted in place of the LRM-5's and a pair of LRM-10 racks take the place of the original SRM-6's. These changes are enabled by the new 200 rated Fusion Engine, allegedly salvaged from a downed Enforcer. Where the LosTech came from or who provided the technical assistance needed for the retrofit is unclear.\n\n&lt;b&gt;&lt;color=#ffcc00&gt;Fusion: Expensive engine that works in a Vacuum.&lt;/color&gt;&lt;/b&gt;\n\n&lt;b&gt;&lt;color=#ffcc00&gt;Movement: 2/3 Hex: 60/90 Meters.&lt;/color&gt;&lt;/b&gt;\n\n&lt;color=#ffcc00&gt;&lt;b&gt;Armor:&lt;/b&gt; Armor\n&lt;b&gt;Structure:&lt;/b&gt; Structure\n&lt;b&gt;Values       A        S  &lt;/b&gt;\n&lt;b&gt;Front&lt;/b&gt;       370     50\n&lt;b&gt;Left&lt;/b&gt;         330     50\n&lt;b&gt;Right&lt;/b&gt;       330     50\n&lt;b&gt;Rear&lt;/b&gt;        325     50\n&lt;b&gt;Turret&lt;/b&gt;      370     50\n\n&lt;b&gt;Total&lt;/b&gt;      1725    250&lt;/color&gt;\n\n&lt;color=#ff0000&gt;Quirk: Main Battle Tank&lt;/color&gt;"</t>
   </si>
   <si>
+    <t>"A customised Behemoth model A of uncertain origin outfitted in rare LosTech, this tank is the property of the Solaris Tank Jockey Scott Mayur. The main guns are replaced with vintage LB-10X Auto-cannons, 4 Streak SRM-2's are mounted in place of the LRM-5's and a pair of LRM-10 racks take the place of the original SRM-6's. These changes are enabled by the new 200 rated Fusion Engine, allegedly salvaged from a downed Enforcer. Where the LosTech came from or who provided the technical assistance needed for the retrofit is unclear.\n\n&lt;b&gt;&lt;color=#ffcc00&gt;Термоядерный: дорогой двигатель, работающий в вакууме.&lt;/color&gt;&lt;/b&gt;\n\n&lt;b&gt;&lt;color=#ffcc00&gt;Передвижение: 2/3 Hex: 60/90 Meters.&lt;/color&gt;&lt;/b&gt;\n\n&lt;color=#ffcc00&gt;&lt;b&gt;Броня:&lt;/b&gt; Броня\n&lt;b&gt;Структура:&lt;/b&gt; Структура\n&lt;b&gt;Знач-я Б С &lt;/b&gt;\n&lt;b&gt;Перед&lt;/b&gt; 370 50\n&lt;b&gt;Лево&lt;/b&gt; 330 50\n&lt;b&gt;Право&lt;/b&gt; 330 50\n&lt;b&gt;Зад&lt;/b&gt; 325 50\n&lt;b&gt;Турель&lt;/b&gt; 370 50\n&lt;b&gt;Итого&lt;/b&gt; 1725 250&lt;/color&gt;\n\n&lt;color=#ff0000&gt;Особенность: Основной боевой танк&lt;/color&gt;"</t>
+  </si>
+  <si>
     <t>vehiclechassisdef_BEHEMOTHA_SOLARIS.YangsThoughts</t>
   </si>
   <si>
@@ -13380,6 +13383,9 @@
     <t>"Long rumoured to be a representative of the Draconis Combine, Michika Miyazaki's latest refit of her beloved Brutus appear to confirm the rumours. A 225 rated XL Engine - allegedly sourced from a Komodo KIM-2 - and Ferro-Fibrous armour are the centrepiece of the upgrades though the most eye catching is a Clan spec targeting computer linked into the new ER Large Lasers. A pair of the Combines experimental MRM-10's replace the LRM-20 and a Beagle Active Probe rounds out the overhaul.\n\n&lt;b&gt;&lt;color=#ffcc00&gt;Fusion: Expensive engine that works in a Vacuum.&lt;/color&gt;&lt;/b&gt;\n\n&lt;b&gt;&lt;color=#ffcc00&gt;Movement: 3/5 Hex: 90/150 Meters.&lt;/color&gt;&lt;/b&gt;\n\n&lt;color=#ffcc00&gt;&lt;b&gt;Armor:&lt;/b&gt; Ferro-Fibrous\n&lt;b&gt;Structure:&lt;/b&gt; Structure\n&lt;b&gt;Values       A        S  &lt;/b&gt;\n&lt;b&gt;Front&lt;/b&gt;       190     40\n&lt;b&gt;Left&lt;/b&gt;         150     40\n&lt;b&gt;Right&lt;/b&gt;       150     40\n&lt;b&gt;Rear&lt;/b&gt;        125     40\n&lt;b&gt;Turret&lt;/b&gt;      150     40\n\n&lt;b&gt;Total&lt;/b&gt;      765    200&lt;/color&gt;\n\n&lt;color=#ff0000&gt;Quirk: Variable Range Targeting&lt;/color&gt;"</t>
   </si>
   <si>
+    <t>"Long rumoured to be a representative of the Draconis Combine, Michika Miyazaki's latest refit of her beloved Brutus appear to confirm the rumours. A 225 rated XL Engine - allegedly sourced from a Komodo KIM-2 - and Ferro-Fibrous armour are the centrepiece of the upgrades though the most eye catching is a Clan spec targeting computer linked into the new ER Large Lasers. A pair of the Combines experimental MRM-10's replace the LRM-20 and a Beagle Active Probe rounds out the overhaul.\n\n&lt;b&gt;&lt;color=#ffcc00&gt;Термоядерный: дорогой двигатель, работающий в вакууме.&lt;/color&gt;&lt;/b&gt;\n\n&lt;b&gt;&lt;color=#ffcc00&gt;Передвижение: 3/5 Hex: 90/150 Meters.&lt;/color&gt;&lt;/b&gt;\n\n&lt;color=#ffcc00&gt;&lt;b&gt;Броня:&lt;/b&gt; Ferro-Fibrous\n&lt;b&gt;Структура:&lt;/b&gt; Structure\n&lt;b&gt;Знач-я Б С &lt;/b&gt;\n&lt;b&gt;Перед&lt;/b&gt; 190 40\n&lt;b&gt;Лево&lt;/b&gt; 150 40\n&lt;b&gt;Право&lt;/b&gt; 150 40\n&lt;b&gt;Зад&lt;/b&gt; 125 40\n&lt;b&gt;Турель&lt;/b&gt; 150 40\n&lt;b&gt;Итого&lt;/b&gt; 765 200&lt;/color&gt;\n\n&lt;color=#ff0000&gt;Особенность: Разнодальнее наведение&lt;/color&gt;"</t>
+  </si>
+  <si>
     <t>vehiclechassisdef_BRUTUS_SOLARIS.YangsThoughts</t>
   </si>
   <si>
@@ -13389,6 +13395,9 @@
     <t>"Hailing from the Free Rasalhague Republic, Tyra Murchie is often characterised as an eccentric genius. Her latest ride is proof of this. Originally a standard Bulldog MBT, it has been rebuilt around a custom made Fuel Cell engine. Taking advantage of the lighter engine, a Guardian ECM unit was installed and Clan spec Large Pulse Laser replaces the original Large Laser. Where the Laser came from or how Tyra managed to adapt the supposedly incompatible IS and Clan technology remains a mystery.\n\n&lt;b&gt;&lt;color=#ffcc00&gt;Fuel Cell: Improved vehicle engine that works in a Vacuum.&lt;/color&gt;&lt;/b&gt;\n\n&lt;b&gt;&lt;color=#ffcc00&gt;Movement: 4/6 Hex: 120/180 Meters.&lt;/color&gt;&lt;/b&gt;\n\n&lt;color=#ffcc00&gt;&lt;b&gt;Armor:&lt;/b&gt; Armor\n&lt;b&gt;Structure:&lt;/b&gt; Structure\n&lt;b&gt;Values       A        S  &lt;/b&gt;\n&lt;b&gt;Front&lt;/b&gt;       140     30\n&lt;b&gt;Left&lt;/b&gt;         120     30\n&lt;b&gt;Right&lt;/b&gt;       120     30\n&lt;b&gt;Rear&lt;/b&gt;        100     30\n&lt;b&gt;Turret&lt;/b&gt;      120     30\n\n&lt;b&gt;Total&lt;/b&gt;      600    150&lt;/color&gt;\n\n&lt;color=#ff0000&gt;Quirk: Main Battle Tank&lt;/color&gt;"</t>
   </si>
   <si>
+    <t>"Hailing from the Free Rasalhague Republic, Tyra Murchie is often characterised as an eccentric genius. Her latest ride is proof of this. Originally a standard Bulldog MBT, it has been rebuilt around a custom made Fuel Cell engine. Taking advantage of the lighter engine, a Guardian ECM unit was installed and Clan spec Large Pulse Laser replaces the original Large Laser. Where the Laser came from or how Tyra managed to adapt the supposedly incompatible IS and Clan technology remains a mystery.\n\n&lt;b&gt;&lt;color=#ffcc00&gt;Топливная ячейка: улучшенный двигатель, работающий в вакууме.&lt;/color&gt;&lt;/b&gt;\n\n&lt;b&gt;&lt;color=#ffcc00&gt;Передвижение: 4/6 Hex: 120/180 Meters.&lt;/color&gt;&lt;/b&gt;\n\n&lt;color=#ffcc00&gt;&lt;b&gt;Броня:&lt;/b&gt; Броня\n&lt;b&gt;Структура:&lt;/b&gt; Структура\n&lt;b&gt;Знач-я Б С &lt;/b&gt;\n&lt;b&gt;Перед&lt;/b&gt; 140 30\n&lt;b&gt;Лево&lt;/b&gt; 120 30\n&lt;b&gt;Право&lt;/b&gt; 120 30\n&lt;b&gt;Зад&lt;/b&gt; 100 30\n&lt;b&gt;Турель&lt;/b&gt; 120 30\n&lt;b&gt;Итого&lt;/b&gt; 600 150&lt;/color&gt;\n\n&lt;color=#ff0000&gt;Особенность: Основной боевой танк&lt;/color&gt;"</t>
+  </si>
+  <si>
     <t>vehiclechassisdef_BULLDOG_SOLARIS.YangsThoughts</t>
   </si>
   <si>
@@ -13398,6 +13407,9 @@
     <t>"The Chevalier Light Tank was produced by and for the Star League. The Succession Wars devastated the stores of the Chevalier as the Successor States often cannibalized them for parts. Only Millennium Industries of Terra continued to produce the design, and that was snapped up by ComStar. Though the top speed is only 97 km/h, it is still respectable for a wheeled vehicle.\n\n&lt;b&gt;&lt;color=#ffcc00&gt;Fusion: Expensive engine that works in a Vacuum.&lt;/color&gt;&lt;/b&gt;\n\n&lt;b&gt;&lt;color=#ffcc00&gt;Movement: 6/9 Hex: 180/270 Meters.&lt;/color&gt;&lt;/b&gt;\n\n&lt;color=#ffcc00&gt;&lt;b&gt;Armor:&lt;/b&gt; Armor\n&lt;b&gt;Structure:&lt;/b&gt; Structure\n&lt;b&gt;Values       A        S  &lt;/b&gt;\n&lt;b&gt;Front&lt;/b&gt;       140     20\n&lt;b&gt;Left&lt;/b&gt;         125     20\n&lt;b&gt;Right&lt;/b&gt;       125     20\n&lt;b&gt;Rear&lt;/b&gt;        110     20\n&lt;b&gt;Turret&lt;/b&gt;      120     20\n\n&lt;b&gt;Total&lt;/b&gt;      620    100&lt;/color&gt;\n\n&lt;color=#ff0000&gt;Quirk: Easy to Pilot&lt;/color&gt;"</t>
   </si>
   <si>
+    <t>"The Chevalier Light Tank was produced by and for the Star League. The Succession Wars devastated the stores of the Chevalier as the Successor States often cannibalized them for parts. Only Millennium Industries of Terra continued to produce the design, and that was snapped up by ComStar. Though the top speed is only 97 km/h, it is still respectable for a wheeled vehicle.\r\n\r\n&lt;b&gt;&lt;color=#ffcc00&gt;Термоядерный: дорогой двигатель, работающий в вакууме.&lt;/color&gt;&lt;/b&gt;\r\n\r\n&lt;b&gt;&lt;color=#ffcc00&gt;Передвижение: 6/9 Hex: 180/270 Meters.&lt;/color&gt;&lt;/b&gt;\r\n\r\n&lt;color=#ffcc00&gt;&lt;b&gt;Броня:&lt;/b&gt; Броня\n&lt;b&gt;Структура:&lt;/b&gt; Структура\n&lt;b&gt;Значения Б С &lt;/b&gt;\n&lt;b&gt;Перед&lt;/b&gt; 140 20\n&lt;b&gt;Лево&lt;/b&gt; 125 20\n&lt;b&gt;Право&lt;/b&gt; 125 20\n&lt;b&gt;Зад&lt;/b&gt; 110 20\n&lt;b&gt;Турель&lt;/b&gt; 120 20\r\n\r\n&lt;b&gt;Итого&lt;/b&gt; 620 100&lt;/color&gt;\r\n\r\n&lt;color=#ff0000&gt;Особенность: Легко управлять&lt;/color&gt;"</t>
+  </si>
+  <si>
     <t>vehiclechassisdef_CHEVALIER_Solaris.YangsThoughts</t>
   </si>
   <si>
@@ -13407,6 +13419,9 @@
     <t>"A relative newcomer to the Solaris scene, Izak Cranworth is a former Mercenary and amateur archaeologist who struck it lucky. Stumbling on to a cache of SLDF spare parts, Izak was able to upgrade his battered Condor. Reskinning the tank in Ferro Fibrous and swapping the ICE for a similar sized 225 Fusion Engine - both sourced from wrecked Nightshade VTOL's - allowed Izak to upgrade the AC/5 to a UAC/5. The Machine Gun is replaced by an Anti Missile System and a pair of Medium Pulse Lasers replace the original Medium Lasers. A recently acquired ClanTech Targeting Computer drastically improves the accuracy of the disparate weapons array.\n\n&lt;b&gt;&lt;color=#ffcc00&gt;Fusion: Expensive engine that works in a Vacuum.&lt;/color&gt;&lt;/b&gt;\n\n&lt;b&gt;&lt;color=#ffcc00&gt;Movement: 8/12 Hex: 240/360 Meters.&lt;/color&gt;&lt;/b&gt;\n\n&lt;color=#ffcc00&gt;&lt;b&gt;Armor:&lt;/b&gt; Heavy Ferro-Fibrous\n&lt;b&gt;Structure:&lt;/b&gt; Structure\n&lt;b&gt;Values       A        S  &lt;/b&gt;\n&lt;b&gt;Front&lt;/b&gt;       170     25\n&lt;b&gt;Left&lt;/b&gt;         100     25\n&lt;b&gt;Right&lt;/b&gt;       100     25\n&lt;b&gt;Rear&lt;/b&gt;        100     25\n&lt;b&gt;Turret&lt;/b&gt;      140     25\n\n&lt;b&gt;Total&lt;/b&gt;      610    125&lt;/color&gt;\n\n&lt;color=#ff0000&gt;Quirk: Quick Off The Line&lt;/color&gt;"</t>
   </si>
   <si>
+    <t>"A relative newcomer to the Solaris scene, Izak Cranworth is a former Mercenary and amateur archaeologist who struck it lucky. Stumbling on to a cache of SLDF spare parts, Izak was able to upgrade his battered Condor. Reskinning the tank in Ferro Fibrous and swapping the ICE for a similar sized 225 Fusion Engine - both sourced from wrecked Nightshade VTOL's - allowed Izak to upgrade the AC/5 to a UAC/5. The Machine Gun is replaced by an Anti Missile System and a pair of Medium Pulse Lasers replace the original Medium Lasers. A recently acquired ClanTech Targeting Computer drastically improves the accuracy of the disparate weapons array.\n\n&lt;b&gt;&lt;color=#ffcc00&gt;Термоядерный: дорогой двигатель, работающий в вакууме.&lt;/color&gt;&lt;/b&gt;\n\n&lt;b&gt;&lt;color=#ffcc00&gt;Передвижение: 8/12 Hex: 240/360 Meters.&lt;/color&gt;&lt;/b&gt;\n\n&lt;color=#ffcc00&gt;&lt;b&gt;Броня:&lt;/b&gt; Heavy Ferro-Fibrous\n&lt;b&gt;Структура:&lt;/b&gt; Structure\n&lt;b&gt;Знач-я Б С &lt;/b&gt;\n&lt;b&gt;Перед&lt;/b&gt; 170 25\n&lt;b&gt;Лево&lt;/b&gt; 100 25\n&lt;b&gt;Право&lt;/b&gt; 100 25\n&lt;b&gt;Зад&lt;/b&gt; 100 25\n&lt;b&gt;Турель&lt;/b&gt; 140 25\n&lt;b&gt;Итого&lt;/b&gt; 610 125&lt;/color&gt;\n\n&lt;color=#ff0000&gt;Особенность: Быстрый уход с линии&lt;/color&gt;"</t>
+  </si>
+  <si>
     <t>vehiclechassisdef_CONDOR_Solaris.YangsThoughts</t>
   </si>
   <si>
@@ -13416,6 +13431,9 @@
     <t>"A familiar face on the Solaris circuits, Daovieng Li is back after an extended absence. A disastrous mishap in her last match resulted in the loss of her Ontos and Li is betting on her new Demolisher to carry her to victory. A modified copy of the standard vehicle, the Demolisher has been rebuilt around a massive ClanTech Targeting Computer; ensuring the feared 155mm ChemJets rarely miss. A custom made Fuel Cell frees up the weight needed for this and a Guardian ECM Suite.\n\n&lt;b&gt;&lt;color=#ffcc00&gt;Fuel Cell: Improved vehicle engine that works in a Vacuum.&lt;/color&gt;&lt;/b&gt;\n\n&lt;b&gt;&lt;color=#ffcc00&gt;Movement: 3/5 Hex: 90/150 Meters.&lt;/color&gt;&lt;/b&gt;\n\n&lt;color=#ffcc00&gt;&lt;b&gt;Armor:&lt;/b&gt; Ferro-Fibrous\n&lt;b&gt;Structure:&lt;/b&gt; Structure\n&lt;b&gt;Values       A        S  &lt;/b&gt;\n&lt;b&gt;Front&lt;/b&gt;       235     40\n&lt;b&gt;Left&lt;/b&gt;         190     40\n&lt;b&gt;Right&lt;/b&gt;       190     40\n&lt;b&gt;Rear&lt;/b&gt;        150     40\n&lt;b&gt;Turret&lt;/b&gt;      235     40\n\n&lt;b&gt;Total&lt;/b&gt;      1000    200&lt;/color&gt;\n\n&lt;color=#ff0000&gt;Quirk: Accurate Weapon - AC&lt;/color&gt;"</t>
   </si>
   <si>
+    <t>"A familiar face on the Solaris circuits, Daovieng Li is back after an extended absence. A disastrous mishap in her last match resulted in the loss of her Ontos and Li is betting on her new Demolisher to carry her to victory. A modified copy of the standard vehicle, the Demolisher has been rebuilt around a massive ClanTech Targeting Computer; ensuring the feared 155mm ChemJets rarely miss. A custom made Fuel Cell frees up the weight needed for this and a Guardian ECM Suite.\n\n&lt;b&gt;&lt;color=#ffcc00&gt;Топливная ячейка: улучшенный двигатель, работающий в вакууме.&lt;/color&gt;&lt;/b&gt;\n\n&lt;b&gt;&lt;color=#ffcc00&gt;Передвижение: 3/5 Hex: 90/150 Meters.&lt;/color&gt;&lt;/b&gt;\n\n&lt;color=#ffcc00&gt;&lt;b&gt;Броня:&lt;/b&gt; Ferro-Fibrous\n&lt;b&gt;Структура:&lt;/b&gt; Structure\n&lt;b&gt;Знач-я Б С &lt;/b&gt;\n&lt;b&gt;Перед&lt;/b&gt; 235 40\n&lt;b&gt;Лево&lt;/b&gt; 190 40\n&lt;b&gt;Право&lt;/b&gt; 190 40\n&lt;b&gt;Зад&lt;/b&gt; 150 40\n&lt;b&gt;Турель&lt;/b&gt; 235 40\n&lt;b&gt;Итого&lt;/b&gt; 1000 200&lt;/color&gt;\n\n&lt;color=#ff0000&gt;Особенность: Точное оружие - AC&lt;/color&gt;"</t>
+  </si>
+  <si>
     <t>vehiclechassisdef_DEMOLISHER_Solaris.YangsThoughts</t>
   </si>
   <si>
@@ -13425,6 +13443,9 @@
     <t>"A former LCAF Tank Driver, James Erskine came to Solaris with a mountain of debt and a mostly intact Drillson MBT. Since then he and his Tank have become a familiar presence on the amateur circuits and it won't be long before he breaks into the bigger leagues. A 215 rated XL Engine -apparently a custom made model - provides room for a Supercharger and an ER Large Laser along with additional armour plating.\n\n&lt;b&gt;&lt;color=#ffcc00&gt;Fusion: Expensive engine that works in a Vacuum.&lt;/color&gt;&lt;/b&gt;\n\n&lt;b&gt;&lt;color=#ffcc00&gt;Movement: 9/14 Hex: 270/420 Meters.&lt;/color&gt;&lt;/b&gt;\n\n&lt;color=#ffcc00&gt;&lt;b&gt;Armor:&lt;/b&gt; Armor\n&lt;b&gt;Structure:&lt;/b&gt; Structure\n&lt;b&gt;Values       A        S  &lt;/b&gt;\n&lt;b&gt;Front&lt;/b&gt;       150     25\n&lt;b&gt;Left&lt;/b&gt;         120     25\n&lt;b&gt;Right&lt;/b&gt;       120     25\n&lt;b&gt;Rear&lt;/b&gt;        105     25\n&lt;b&gt;Turret&lt;/b&gt;      150     25\n\n&lt;b&gt;Total&lt;/b&gt;      645    125&lt;/color&gt;\n\n&lt;color=#ff0000&gt;Quirk: Accurate Weapon - Laser&lt;/color&gt;"</t>
   </si>
   <si>
+    <t>"A former LCAF Tank Driver, James Erskine came to Solaris with a mountain of debt and a mostly intact Drillson MBT. Since then he and his Tank have become a familiar presence on the amateur circuits and it won't be long before he breaks into the bigger leagues. A 215 rated XL Engine -apparently a custom made model - provides room for a Supercharger and an ER Large Laser along with additional armour plating.\n\n&lt;b&gt;&lt;color=#ffcc00&gt;Термоядерный: дорогой двигатель, работающий в вакууме.&lt;/color&gt;&lt;/b&gt;\n\n&lt;b&gt;&lt;color=#ffcc00&gt;Передвижение: 9/14 Hex: 270/420 Meters.&lt;/color&gt;&lt;/b&gt;\n\n&lt;color=#ffcc00&gt;&lt;b&gt;Броня:&lt;/b&gt; Броня\n&lt;b&gt;Структура:&lt;/b&gt; Структура\n&lt;b&gt;Знач-я Б С &lt;/b&gt;\n&lt;b&gt;Перед&lt;/b&gt; 150 25\n&lt;b&gt;Лево&lt;/b&gt; 120 25\n&lt;b&gt;Право&lt;/b&gt; 120 25\n&lt;b&gt;Зад&lt;/b&gt; 105 25\n&lt;b&gt;Турель&lt;/b&gt; 150 25\n&lt;b&gt;Итого&lt;/b&gt; 645 125&lt;/color&gt;\n\n&lt;color=#ff0000&gt;Особенность: Точное оружие - Laser&lt;/color&gt;"</t>
+  </si>
+  <si>
     <t>vehiclechassisdef_DRILLSON_SOLARIS.YangsThoughts</t>
   </si>
   <si>
@@ -13434,6 +13455,9 @@
     <t>"Despite appearances Fayza Mir is not actually a Tank Jockey, instead she's rumoured to be corporate test pilot for Brooks Incorporated. Her Galleon is certainly heavily customised and chock full of unusual modifications. The most unusual of these is a 210 rated XL Engine; apparently acquired from VEST. Paired with this is a Supercharger, capable of pushing the Galleon up to nearly 150kph. Protection is improved with an extra ton of armour plating and the entire tank has been reskinned in Ferro Fibrous plating. A Guardian ECM Suite rounds out the protection while the tanks weapons consist of a Large Laser and 2 Medium Lasers.\n\n&lt;b&gt;&lt;color=#ffcc00&gt;Fusion: Expensive engine that works in a Vacuum.&lt;/color&gt;&lt;/b&gt;\n\n&lt;b&gt;&lt;color=#ffcc00&gt;Movement: 7/11 Hex: 210/330 Meters.&lt;/color&gt;&lt;/b&gt;\n\n&lt;color=#ffcc00&gt;&lt;b&gt;Armor:&lt;/b&gt; Ferro-Fibrous\n&lt;b&gt;Structure:&lt;/b&gt; Structure\n&lt;b&gt;Values       A        S  &lt;/b&gt;\n&lt;b&gt;Front&lt;/b&gt;       100     15\n&lt;b&gt;Left&lt;/b&gt;          85     15\n&lt;b&gt;Right&lt;/b&gt;        85     15\n&lt;b&gt;Rear&lt;/b&gt;         80     15\n&lt;b&gt;Turret&lt;/b&gt;      100     15\n\n&lt;b&gt;Total&lt;/b&gt;      450     75&lt;/color&gt;\n\n&lt;color=#ff0000&gt;Quirk: Protected Mechanisms&lt;/color&gt;"</t>
   </si>
   <si>
+    <t>"Despite appearances Fayza Mir is not actually a Tank Jockey, instead she's rumoured to be corporate test pilot for Brooks Incorporated. Her Galleon is certainly heavily customised and chock full of unusual modifications. The most unusual of these is a 210 rated XL Engine; apparently acquired from VEST. Paired with this is a Supercharger, capable of pushing the Galleon up to nearly 150kph. Protection is improved with an extra ton of armour plating and the entire tank has been reskinned in Ferro Fibrous plating. A Guardian ECM Suite rounds out the protection while the tanks weapons consist of a Large Laser and 2 Medium Lasers.\n\n&lt;b&gt;&lt;color=#ffcc00&gt;Термоядерный: дорогой двигатель, работающий в вакууме.&lt;/color&gt;&lt;/b&gt;\n\n&lt;b&gt;&lt;color=#ffcc00&gt;Передвижение: 7/11 Hex: 210/330 Meters.&lt;/color&gt;&lt;/b&gt;\n\n&lt;color=#ffcc00&gt;&lt;b&gt;Броня:&lt;/b&gt; Ferro-Fibrous\n&lt;b&gt;Структура:&lt;/b&gt; Structure\n&lt;b&gt;Знач-я Б С &lt;/b&gt;\n&lt;b&gt;Перед&lt;/b&gt; 100 15\n&lt;b&gt;Лево&lt;/b&gt; 85 15\n&lt;b&gt;Право&lt;/b&gt; 85 15\n&lt;b&gt;Зад&lt;/b&gt; 80 15\n&lt;b&gt;Турель&lt;/b&gt; 100 15\n&lt;b&gt;Итого&lt;/b&gt; 450 75&lt;/color&gt;\n\n&lt;color=#ff0000&gt;Особенность: Защищенные механизмы&lt;/color&gt;"</t>
+  </si>
+  <si>
     <t>vehiclechassisdef_GALLEON_Solaris.YangsThoughts</t>
   </si>
   <si>
@@ -13443,6 +13467,9 @@
     <t>"Once a bounty hunter and occasional assassin, Alexander Vlasik has largely retired minus his occasional matches in the mid weight circuits. His Goblin is a feared and respected sight, not least because the bulk of it was assembled from salvage taken from his bounties. The original Goblin chassis came from a pirate band; the XL Engine, AMS and CASE came from a downed PXH-3M and the ER PPC was pulled from the wreckage of a MAD-5D. The only thing not salvaged was the Goblins supercharger which came from a local tech shop. The mishmash of upgrades combine to make the Goblin a fast and mobile sniper with a nasty reputation.\n\n&lt;b&gt;&lt;color=#ffcc00&gt;Fusion: Expensive engine that works in a Vacuum.&lt;/color&gt;&lt;/b&gt;\n\n&lt;b&gt;&lt;color=#ffcc00&gt;Movement: 6/9 Hex: 180/270 Meters.&lt;/color&gt;&lt;/b&gt;\n\n&lt;color=#ffcc00&gt;&lt;b&gt;Armor:&lt;/b&gt; Armor\n&lt;b&gt;Structure:&lt;/b&gt; Structure\n&lt;b&gt;Values       A        S  &lt;/b&gt;\n&lt;b&gt;Front&lt;/b&gt;       160     25\n&lt;b&gt;Left&lt;/b&gt;         130     25\n&lt;b&gt;Right&lt;/b&gt;       130     25\n&lt;b&gt;Rear&lt;/b&gt;        115     25\n&lt;b&gt;Turret&lt;/b&gt;      160     25\n\n&lt;b&gt;Total&lt;/b&gt;      695    125&lt;/color&gt;\n\n&lt;color=#ff0000&gt;Quirk: Variable Range Targeting&lt;/color&gt;"</t>
   </si>
   <si>
+    <t>"Once a bounty hunter and occasional assassin, Alexander Vlasik has largely retired minus his occasional matches in the mid weight circuits. His Goblin is a feared and respected sight, not least because the bulk of it was assembled from salvage taken from his bounties. The original Goblin chassis came from a pirate band; the XL Engine, AMS and CASE came from a downed PXH-3M and the ER PPC was pulled from the wreckage of a MAD-5D. The only thing not salvaged was the Goblins supercharger which came from a local tech shop. The mishmash of upgrades combine to make the Goblin a fast and mobile sniper with a nasty reputation.\n\n&lt;b&gt;&lt;color=#ffcc00&gt;Термоядерный: дорогой двигатель, работающий в вакууме.&lt;/color&gt;&lt;/b&gt;\n\n&lt;b&gt;&lt;color=#ffcc00&gt;Передвижение: 6/9 Hex: 180/270 Meters.&lt;/color&gt;&lt;/b&gt;\n\n&lt;color=#ffcc00&gt;&lt;b&gt;Броня:&lt;/b&gt; Броня\n&lt;b&gt;Структура:&lt;/b&gt; Структура\n&lt;b&gt;Знач-я Б С &lt;/b&gt;\n&lt;b&gt;Перед&lt;/b&gt; 160 25\n&lt;b&gt;Лево&lt;/b&gt; 130 25\n&lt;b&gt;Право&lt;/b&gt; 130 25\n&lt;b&gt;Зад&lt;/b&gt; 115 25\n&lt;b&gt;Турель&lt;/b&gt; 160 25\n&lt;b&gt;Итого&lt;/b&gt; 695 125&lt;/color&gt;\n\n&lt;color=#ff0000&gt;Особенность: Разнодальнее наведение&lt;/color&gt;"</t>
+  </si>
+  <si>
     <t>vehiclechassisdef_GOBLIN_SOLARIS.YangsThoughts</t>
   </si>
   <si>
@@ -13452,6 +13479,9 @@
     <t>"Possibly insane and certainly eccentric, Johana Nyemba is the highest profile Hetzer Jockey on Solaris. Usually appearing in the mixed Leagues, this is her first appearance fighting solo. Built for one hit kills, her Hetzer features a Gauss Rifle in place of the traditional Autocannon. A custom made Fuel Cell pushes the Hetzer to speeds in excess of 80 kph and provides the space for the massive Gauss Rifle and it's ammo. A Guardian ECM unit helps the Hetzer to reposition between shots and provides some protection at range.\n\n&lt;b&gt;&lt;color=#ffcc00&gt;Fuel Cell: Improved vehicle engine that works in a Vacuum.&lt;/color&gt;&lt;/b&gt;\n\n&lt;b&gt;&lt;color=#ffcc00&gt;Movement: 5/8 Hex: 150/240 Meters.&lt;/color&gt;&lt;/b&gt;\n\n&lt;color=#ffcc00&gt;&lt;b&gt;Armor:&lt;/b&gt; Armor\n&lt;b&gt;Structure:&lt;/b&gt; Structure\n&lt;b&gt;Values       A        S  &lt;/b&gt;\n&lt;b&gt;Front&lt;/b&gt;       170     20\n&lt;b&gt;Left&lt;/b&gt;         130     20\n&lt;b&gt;Right&lt;/b&gt;       130     20\n&lt;b&gt;Rear&lt;/b&gt;        130     20\n\n&lt;b&gt;Total&lt;/b&gt;      560     80&lt;/color&gt;\n\n&lt;color=#ff0000&gt;Quirk: Narrow/Low Profile&lt;/color&gt;"</t>
   </si>
   <si>
+    <t>"Possibly insane and certainly eccentric, Johana Nyemba is the highest profile Hetzer Jockey on Solaris. Usually appearing in the mixed Leagues, this is her first appearance fighting solo. Built for one hit kills, her Hetzer features a Gauss Rifle in place of the traditional Autocannon. A custom made Fuel Cell pushes the Hetzer to speeds in excess of 80 kph and provides the space for the massive Gauss Rifle and it's ammo. A Guardian ECM unit helps the Hetzer to reposition between shots and provides some protection at range.\n\n&lt;b&gt;&lt;color=#ffcc00&gt;Топливная ячейка: улучшенный двигатель, работающий в вакууме.&lt;/color&gt;&lt;/b&gt;\n\n&lt;b&gt;&lt;color=#ffcc00&gt;Передвижение: 5/8 Hex: 150/240 Meters.&lt;/color&gt;&lt;/b&gt;\n\n&lt;color=#ffcc00&gt;&lt;b&gt;Броня:&lt;/b&gt; Броня\n&lt;b&gt;Структура:&lt;/b&gt; Структура\n&lt;b&gt;Знач-я Б С &lt;/b&gt;\n&lt;b&gt;Перед&lt;/b&gt; 170 20\n&lt;b&gt;Лево&lt;/b&gt; 130 20\n&lt;b&gt;Право&lt;/b&gt; 130 20\n&lt;b&gt;Зад&lt;/b&gt; 130 20\n&lt;b&gt;Итого&lt;/b&gt; 560 80&lt;/color&gt;\n\n&lt;color=#ff0000&gt;Особенность: Узкий/низкий профиль&lt;/color&gt;"</t>
+  </si>
+  <si>
     <t>vehiclechassisdef_HETZER_Solaris.YangsThoughts</t>
   </si>
   <si>
@@ -13461,6 +13491,9 @@
     <t>"Not much is known about Frantz Moore but one thing is for certain; he has serious connections. Experimental DCMS tech doesn't just fall off any old dropship after all. Somewhat unusually for a Hunter driver, he favours close combat and has equipped his Hunter with a supercharger and an MRM-30 with 3 tons of ammo. An XL Engine allows the addition of 2 tons of armour; making for a potent ambusher.\n\n&lt;b&gt;&lt;color=#ffcc00&gt;Fusion: Expensive engine that works in a Vacuum.&lt;/color&gt;&lt;/b&gt;\n\n&lt;b&gt;&lt;color=#ffcc00&gt;Movement: 5/8 Hex: 150/240 Meters.&lt;/color&gt;&lt;/b&gt;\n\n&lt;color=#ffcc00&gt;&lt;b&gt;Armor:&lt;/b&gt; Armor\n&lt;b&gt;Structure:&lt;/b&gt; Structure\n&lt;b&gt;Values       A        S  &lt;/b&gt;\n&lt;b&gt;Front&lt;/b&gt;       260     20\n&lt;b&gt;Left&lt;/b&gt;         160     20\n&lt;b&gt;Right&lt;/b&gt;       160     20\n&lt;b&gt;Rear&lt;/b&gt;        100     20\n\n&lt;b&gt;Total&lt;/b&gt;      680     80&lt;/color&gt;\n\n&lt;color=#ff0000&gt;Quirk: Accurate Weapon - Missiles&lt;/color&gt;"</t>
   </si>
   <si>
+    <t>"Not much is known about Frantz Moore but one thing is for certain; he has serious connections. Experimental DCMS tech doesn't just fall off any old dropship after all. Somewhat unusually for a Hunter driver, he favours close combat and has equipped his Hunter with a supercharger and an MRM-30 with 3 tons of ammo. An XL Engine allows the addition of 2 tons of armour; making for a potent ambusher.\n\n&lt;b&gt;&lt;color=#ffcc00&gt;Термоядерный: дорогой двигатель, работающий в вакууме.&lt;/color&gt;&lt;/b&gt;\n\n&lt;b&gt;&lt;color=#ffcc00&gt;Передвижение: 5/8 Hex: 150/240 Meters.&lt;/color&gt;&lt;/b&gt;\n\n&lt;color=#ffcc00&gt;&lt;b&gt;Броня:&lt;/b&gt; Броня\n&lt;b&gt;Структура:&lt;/b&gt; Структура\n&lt;b&gt;Знач-я Б С &lt;/b&gt;\n&lt;b&gt;Перед&lt;/b&gt; 260 20\n&lt;b&gt;Лево&lt;/b&gt; 160 20\n&lt;b&gt;Право&lt;/b&gt; 160 20\n&lt;b&gt;Зад&lt;/b&gt; 100 20\n&lt;b&gt;Итого&lt;/b&gt; 680 80&lt;/color&gt;\n\n&lt;color=#ff0000&gt;Особенность: Точное оружие - Missiles&lt;/color&gt;"</t>
+  </si>
+  <si>
     <t>vehiclechassisdef_HUNTER_Solaris.YangsThoughts</t>
   </si>
   <si>
@@ -13470,6 +13503,9 @@
     <t>"Mysterious and uncertain pasts are par for the course on Solaris, but Cait's is stranger then most. Most stories claims she defected from a Clan or was captured in combat. Whatever the case, she is an unusual contender on the arena circuits with a customized J. Edgar believed to date from the first Star League. Fully upgraded with ClanTech, the J. Edgar uses a combination of an XL Engine and Ferro Fibrous to free up the weight needed to upgrade the SRM-2's to Clan Streak 4's. The Medium Laser is swapped for a Clan ER model and the armour protection is improved by a ton.\n\n&lt;b&gt;&lt;color=#ffcc00&gt;Fusion: Expensive engine that works in a Vacuum.&lt;/color&gt;&lt;/b&gt;\n\n&lt;b&gt;&lt;color=#ffcc00&gt;Movement: 11/17 Hex: 330/510 Meters.&lt;/color&gt;&lt;/b&gt;\n\n&lt;color=#ffcc00&gt;&lt;b&gt;Armor:&lt;/b&gt; Ferro-Fibrous (C)\n&lt;b&gt;Structure:&lt;/b&gt; Structure\n&lt;b&gt;Values       A        S  &lt;/b&gt;\n&lt;b&gt;Front&lt;/b&gt;       160     15\n&lt;b&gt;Left&lt;/b&gt;         110     15\n&lt;b&gt;Right&lt;/b&gt;       110     15\n&lt;b&gt;Rear&lt;/b&gt;         80     15\n&lt;b&gt;Turret&lt;/b&gt;      140     15\n\n&lt;b&gt;Total&lt;/b&gt;      600     75&lt;/color&gt;\n\n&lt;color=#ff0000&gt;Quirk: Accurate Weapon - Laser&lt;/color&gt;"</t>
   </si>
   <si>
+    <t>"Mysterious and uncertain pasts are par for the course on Solaris, but Cait's is stranger then most. Most stories claims she defected from a Clan or was captured in combat. Whatever the case, she is an unusual contender on the arena circuits with a customized J. Edgar believed to date from the first Star League. Fully upgraded with ClanTech, the J. Edgar uses a combination of an XL Engine and Ferro Fibrous to free up the weight needed to upgrade the SRM-2's to Clan Streak 4's. The Medium Laser is swapped for a Clan ER model and the armour protection is improved by a ton.\n\n&lt;b&gt;&lt;color=#ffcc00&gt;Термоядерный: дорогой двигатель, работающий в вакууме.&lt;/color&gt;&lt;/b&gt;\n\n&lt;b&gt;&lt;color=#ffcc00&gt;Передвижение: 11/17 Hex: 330/510 Meters.&lt;/color&gt;&lt;/b&gt;\n\n&lt;color=#ffcc00&gt;&lt;b&gt;Броня:&lt;/b&gt; Ferro-Fibrous (C)\n&lt;b&gt;Структура:&lt;/b&gt; Structure\n&lt;b&gt;Знач-я Б С &lt;/b&gt;\n&lt;b&gt;Перед&lt;/b&gt; 160 15\n&lt;b&gt;Лево&lt;/b&gt; 110 15\n&lt;b&gt;Право&lt;/b&gt; 110 15\n&lt;b&gt;Зад&lt;/b&gt; 80 15\n&lt;b&gt;Турель&lt;/b&gt; 140 15\n&lt;b&gt;Итого&lt;/b&gt; 600 75&lt;/color&gt;\n\n&lt;color=#ff0000&gt;Особенность: Точное оружие - Laser&lt;/color&gt;"</t>
+  </si>
+  <si>
     <t>vehiclechassisdef_JEdgar_Solaris.YangsThoughts</t>
   </si>
   <si>
@@ -13479,6 +13515,9 @@
     <t>"Kyle MacGlashan is very coy about the origins of his Kanga, a tank which is theoretically extinct. That doesn't stop the museum piece from being any less dangerous with 8 wins already racked up this year. Outfitted for CQC, Kyle's Kanga is significantly modified compared to the original model. A swap to a Fuel Cell enables the main gun to be upgraded for an LB-10X model. Likewise the missile racks are swapped for a pair of Streak SRM-2's and a Small Laser takes the place of the Machine Gun.\n\n&lt;b&gt;&lt;color=#ffcc00&gt;Fuel Cell: Improved vehicle engine that works in a Vacuum.&lt;/color&gt;&lt;/b&gt;\n\n&lt;b&gt;&lt;color=#ffcc00&gt;Movement: 8/12 Hex: 240/360 Meters.&lt;/color&gt;&lt;/b&gt;\n\n&lt;color=#ffcc00&gt;&lt;b&gt;Armor:&lt;/b&gt; Armor\n&lt;b&gt;Structure:&lt;/b&gt; Structure\n&lt;b&gt;Values       A        S  &lt;/b&gt;\n&lt;b&gt;Front&lt;/b&gt;       150     25\n&lt;b&gt;Left&lt;/b&gt;         110     25\n&lt;b&gt;Right&lt;/b&gt;       110     25\n&lt;b&gt;Rear&lt;/b&gt;        110     25\n\n&lt;b&gt;Total&lt;/b&gt;      480    100&lt;/color&gt;\n\n&lt;color=#ff0000&gt;Quirk: Protected Mechanisms&lt;/color&gt;"</t>
   </si>
   <si>
+    <t>"Kyle MacGlashan is very coy about the origins of his Kanga, a tank which is theoretically extinct. That doesn't stop the museum piece from being any less dangerous with 8 wins already racked up this year. Outfitted for CQC, Kyle's Kanga is significantly modified compared to the original model. A swap to a Fuel Cell enables the main gun to be upgraded for an LB-10X model. Likewise the missile racks are swapped for a pair of Streak SRM-2's and a Small Laser takes the place of the Machine Gun.\n\n&lt;b&gt;&lt;color=#ffcc00&gt;Топливная ячейка: улучшенный двигатель, работающий в вакууме.&lt;/color&gt;&lt;/b&gt;\n\n&lt;b&gt;&lt;color=#ffcc00&gt;Передвижение: 8/12 Hex: 240/360 Meters.&lt;/color&gt;&lt;/b&gt;\n\n&lt;color=#ffcc00&gt;&lt;b&gt;Броня:&lt;/b&gt; Броня\n&lt;b&gt;Структура:&lt;/b&gt; Структура\n&lt;b&gt;Знач-я Б С &lt;/b&gt;\n&lt;b&gt;Перед&lt;/b&gt; 150 25\n&lt;b&gt;Лево&lt;/b&gt; 110 25\n&lt;b&gt;Право&lt;/b&gt; 110 25\n&lt;b&gt;Зад&lt;/b&gt; 110 25\n&lt;b&gt;Итого&lt;/b&gt; 480 100&lt;/color&gt;\n\n&lt;color=#ff0000&gt;Особенность: Защищенные механизмы&lt;/color&gt;"</t>
+  </si>
+  <si>
     <t>vehiclechassisdef_KANGA_Solaris.YangsThoughts</t>
   </si>
   <si>
@@ -13488,6 +13527,9 @@
     <t>"A former pro racer Elfi Melsom has taken to high speed duelling with a dramatic flair. Working with an unknown patron, Elfi has recently adjured a small fortune in ClanTech. Her Lightning is an original spec model of uncertain provenance with extensive modifications. The most dramatic of which are the XL Engine recently claimed as salvage in a duel with a Nighthawk NTK-2Q. The free weight from this allowed Elfi to double her rides protection with 7.5 tons of Ferro Fibrous compared to the original 3.5. The cache of ClanTech has come in handy with a Targeting Computer augmenting the Medium Pulse Lasers and Streak SRM-4's replacing the one shot launchers.\n\n&lt;b&gt;&lt;color=#ffcc00&gt;Fusion: Expensive engine that works in a Vacuum.&lt;/color&gt;&lt;/b&gt;\n\n&lt;b&gt;&lt;color=#ffcc00&gt;Movement: 11/17 Hex: 330/510 Meters.&lt;/color&gt;&lt;/b&gt;\n\n&lt;color=#ffcc00&gt;&lt;b&gt;Armor:&lt;/b&gt; Ferro-Fibrous\n&lt;b&gt;Structure:&lt;/b&gt; Structure\n&lt;b&gt;Values       A        S  &lt;/b&gt;\n&lt;b&gt;Front&lt;/b&gt;       200     20\n&lt;b&gt;Left&lt;/b&gt;         170     20\n&lt;b&gt;Right&lt;/b&gt;       170     20\n&lt;b&gt;Rear&lt;/b&gt;        150     20\n\n&lt;b&gt;Total&lt;/b&gt;      690     80&lt;/color&gt;\n\n&lt;color=#ff0000&gt;Quirk: Narrow/Low Profile&lt;/color&gt;"</t>
   </si>
   <si>
+    <t>"A former pro racer Elfi Melsom has taken to high speed duelling with a dramatic flair. Working with an unknown patron, Elfi has recently adjured a small fortune in ClanTech. Her Lightning is an original spec model of uncertain provenance with extensive modifications. The most dramatic of which are the XL Engine recently claimed as salvage in a duel with a Nighthawk NTK-2Q. The free weight from this allowed Elfi to double her rides protection with 7.5 tons of Ferro Fibrous compared to the original 3.5. The cache of ClanTech has come in handy with a Targeting Computer augmenting the Medium Pulse Lasers and Streak SRM-4's replacing the one shot launchers.\n\n&lt;b&gt;&lt;color=#ffcc00&gt;Термоядерный: дорогой двигатель, работающий в вакууме.&lt;/color&gt;&lt;/b&gt;\n\n&lt;b&gt;&lt;color=#ffcc00&gt;Передвижение: 11/17 Hex: 330/510 Meters.&lt;/color&gt;&lt;/b&gt;\n\n&lt;color=#ffcc00&gt;&lt;b&gt;Броня:&lt;/b&gt; Ferro-Fibrous\n&lt;b&gt;Структура:&lt;/b&gt; Structure\n&lt;b&gt;Знач-я Б С &lt;/b&gt;\n&lt;b&gt;Перед&lt;/b&gt; 200 20\n&lt;b&gt;Лево&lt;/b&gt; 170 20\n&lt;b&gt;Право&lt;/b&gt; 170 20\n&lt;b&gt;Зад&lt;/b&gt; 150 20\n&lt;b&gt;Итого&lt;/b&gt; 690 80&lt;/color&gt;\n\n&lt;color=#ff0000&gt;Особенность: Узкий/низкий профиль&lt;/color&gt;"</t>
+  </si>
+  <si>
     <t>vehiclechassisdef_LIGHTNING_Solaris.YangsThoughts</t>
   </si>
   <si>
@@ -13497,6 +13539,9 @@
     <t>"The vehicle simply known as the 'Hover Tank' was originally developed by Lucas Technologies as a bid to gain a military contract for the Terran Hegemony's Armed forces. After years of development and proposals, the result their efforts would be the LTV-4 Hover Tank in 2464. The LTV series was the response as part of an effort to counter proliferation of BattleMech technologies stolen from the Hegemony. The vehicle was designed to swarm these early BattleMechs in groups and use their combined firepower to hold them until other forces could close and eliminate them.\n\n&lt;b&gt;&lt;color=#ffcc00&gt;Fusion: Expensive engine that works in a Vacuum.&lt;/color&gt;&lt;/b&gt;\n\n&lt;b&gt;&lt;color=#ffcc00&gt;Movement: 7/11 Hex: 210/330 Meters.&lt;/color&gt;&lt;/b&gt;\n\n&lt;color=#ffcc00&gt;&lt;b&gt;Armor:&lt;/b&gt; Armor\n&lt;b&gt;Structure:&lt;/b&gt; Structure\n&lt;b&gt;Values       A        S  &lt;/b&gt;\n&lt;b&gt;Front&lt;/b&gt;       150     25\n&lt;b&gt;Left&lt;/b&gt;         120     25\n&lt;b&gt;Right&lt;/b&gt;       120     25\n&lt;b&gt;Rear&lt;/b&gt;        100     25\n&lt;b&gt;Turret&lt;/b&gt;      100     25\n\n&lt;b&gt;Total&lt;/b&gt;      590    125&lt;/color&gt;\n\n&lt;color=#ff0000&gt;Quirk: Improved Targeting - Short&lt;/color&gt;"</t>
   </si>
   <si>
+    <t>"The vehicle simply known as the 'Hover Tank' was originally developed by Lucas Technologies as a bid to gain a military contract for the Terran Hegemony's Armed forces. After years of development and proposals, the result their efforts would be the LTV-4 Hover Tank in 2464. The LTV series was the response as part of an effort to counter proliferation of BattleMech technologies stolen from the Hegemony. The vehicle was designed to swarm these early BattleMechs in groups and use their combined firepower to hold them until other forces could close and eliminate them.\r\n\r\n&lt;b&gt;&lt;color=#ffcc00&gt;Термоядерный: дорогой двигатель, работающий в вакууме.&lt;/color&gt;&lt;/b&gt;\r\n\r\n&lt;b&gt;&lt;color=#ffcc00&gt;Передвижение: 7/11 Hex: 210/330 Meters.&lt;/color&gt;&lt;/b&gt;\r\n\r\n&lt;color=#ffcc00&gt;&lt;b&gt;Броня:&lt;/b&gt; Броня\n&lt;b&gt;Структура:&lt;/b&gt; Структура\n&lt;b&gt;Значения Б С &lt;/b&gt;\n&lt;b&gt;Перед&lt;/b&gt; 150 25\n&lt;b&gt;Лево&lt;/b&gt; 120 25\n&lt;b&gt;Право&lt;/b&gt; 120 25\n&lt;b&gt;Зад&lt;/b&gt; 100 25\n&lt;b&gt;Турель&lt;/b&gt; 100 25\r\n\r\n&lt;b&gt;Итого&lt;/b&gt; 590 125&lt;/color&gt;\r\n\r\n&lt;color=#ff0000&gt;Особенность: Улучшенное наведение - Short&lt;/color&gt;"</t>
+  </si>
+  <si>
     <t>vehiclechassisdef_LTV-4_Solaris.YangsThoughts</t>
   </si>
   <si>
@@ -13506,6 +13551,9 @@
     <t>"The Marsden II Main Battle Tank was introduced by Arcturan Arms in 2463 to replace its venerable predecessor after seventy years of frontline service. Improved technical and manufacturing knowledge allowed the company to improve the new tank's arms and armor while still making it five tons lighter. With its excellent firepower and thick armor, it was considered a cutting edge combat vehicle when it premiered during the Age of War. The durable Marsden II continued to soldier on in various planetary militias and private security force arsenals into the Succession Wars.\n\n&lt;b&gt;&lt;color=#ffcc00&gt;Fusion: Expensive engine that works in a Vacuum.&lt;/color&gt;&lt;/b&gt;\n\n&lt;b&gt;&lt;color=#ffcc00&gt;Movement: 4/6 Hex: 120/180 Meters.&lt;/color&gt;&lt;/b&gt;\n\n&lt;color=#ffcc00&gt;&lt;b&gt;Armor:&lt;/b&gt; Armor\n&lt;b&gt;Structure:&lt;/b&gt; Structure\n&lt;b&gt;Values       A        S  &lt;/b&gt;\n&lt;b&gt;Front&lt;/b&gt;       270     30\n&lt;b&gt;Left&lt;/b&gt;         260     30\n&lt;b&gt;Right&lt;/b&gt;       260     30\n&lt;b&gt;Rear&lt;/b&gt;        205     30\n&lt;b&gt;Turret&lt;/b&gt;      255     30\n\n&lt;b&gt;Total&lt;/b&gt;      1250    150&lt;/color&gt;\n\n&lt;color=#ff0000&gt;Quirk: Main Battle Tank&lt;/color&gt;"</t>
   </si>
   <si>
+    <t>"The Marsden II Main Battle Tank was introduced by Arcturan Arms in 2463 to replace its venerable predecessor after seventy years of frontline service. Improved technical and manufacturing knowledge allowed the company to improve the new tank's arms and armor while still making it five tons lighter. With its excellent firepower and thick armor, it was considered a cutting edge combat vehicle when it premiered during the Age of War. The durable Marsden II continued to soldier on in various planetary militias and private security force arsenals into the Succession Wars.\r\n\r\n&lt;b&gt;&lt;color=#ffcc00&gt;Термоядерный: дорогой двигатель, работающий в вакууме.&lt;/color&gt;&lt;/b&gt;\r\n\r\n&lt;b&gt;&lt;color=#ffcc00&gt;Передвижение: 4/6 Hex: 120/180 Meters.&lt;/color&gt;&lt;/b&gt;\r\n\r\n&lt;color=#ffcc00&gt;&lt;b&gt;Броня:&lt;/b&gt; Броня\n&lt;b&gt;Структура:&lt;/b&gt; Структура\n&lt;b&gt;Значения Б С &lt;/b&gt;\n&lt;b&gt;Перед&lt;/b&gt; 270 30\n&lt;b&gt;Лево&lt;/b&gt; 260 30\n&lt;b&gt;Право&lt;/b&gt; 260 30\n&lt;b&gt;Зад&lt;/b&gt; 205 30\n&lt;b&gt;Турель&lt;/b&gt; 255 30\r\n\r\n&lt;b&gt;Итого&lt;/b&gt; 1250 150&lt;/color&gt;\r\n\r\n&lt;color=#ff0000&gt;Особенность: Основной боевой танк&lt;/color&gt;"</t>
+  </si>
+  <si>
     <t>vehiclechassisdef_MARSDENII_SOLARIS.YangsThoughts</t>
   </si>
   <si>
@@ -13515,6 +13563,9 @@
     <t>"A native of Solaris, Natalie Curwen was at one point a rising star in the planetary militia until her career was cut short amid unproven rumours of corruption and selling classified intelligence. Since being booted out, she has slowly worked her way through the various minor leagues while dealing in information and - allegedly - black market weapons. Driving a customised Palisade MBT acquired during her militia service, Curwen has some how secured a Clan LRM-20 augmented with Artemis IV and steady supply of ammo to go with it. Installed on her tank in place of the original LRM-15; the free weight created has been used to upgrade the Machine Gun to an AMS and add CASE to the magazines. Ferro Fibrous was used to improve the Tanks armour, particularly on the weaker flank and rear armour.\n\n&lt;b&gt;&lt;color=#ffcc00&gt;Fuel Cell: Improved vehicle engine that works in a Vacuum.&lt;/color&gt;&lt;/b&gt;\n\n&lt;b&gt;&lt;color=#ffcc00&gt;Movement: 4/6 Hex: 120/180 Meters.&lt;/color&gt;&lt;/b&gt;\n\n&lt;color=#ffcc00&gt;&lt;b&gt;Armor:&lt;/b&gt; Ferro-Fibrous\n&lt;b&gt;Structure:&lt;/b&gt; Structure\n&lt;b&gt;Values       A        S  &lt;/b&gt;\n&lt;b&gt;Front&lt;/b&gt;       270     30\n&lt;b&gt;Left&lt;/b&gt;         210     30\n&lt;b&gt;Right&lt;/b&gt;       210     30\n&lt;b&gt;Rear&lt;/b&gt;        200     30\n&lt;b&gt;Turret&lt;/b&gt;      210     30\n\n&lt;b&gt;Total&lt;/b&gt;      1100    150&lt;/color&gt;\n\n&lt;color=#ff0000&gt;Quirk: Main Battle Tank&lt;/color&gt;"</t>
   </si>
   <si>
+    <t>"A native of Solaris, Natalie Curwen was at one point a rising star in the planetary militia until her career was cut short amid unproven rumours of corruption and selling classified intelligence. Since being booted out, she has slowly worked her way through the various minor leagues while dealing in information and - allegedly - black market weapons. Driving a customised Palisade MBT acquired during her militia service, Curwen has some how secured a Clan LRM-20 augmented with Artemis IV and steady supply of ammo to go with it. Installed on her tank in place of the original LRM-15; the free weight created has been used to upgrade the Machine Gun to an AMS and add CASE to the magazines. Ferro Fibrous was used to improve the Tanks armour, particularly on the weaker flank and rear armour.\n\n&lt;b&gt;&lt;color=#ffcc00&gt;Топливная ячейка: улучшенный двигатель, работающий в вакууме.&lt;/color&gt;&lt;/b&gt;\n\n&lt;b&gt;&lt;color=#ffcc00&gt;Передвижение: 4/6 Hex: 120/180 Meters.&lt;/color&gt;&lt;/b&gt;\n\n&lt;color=#ffcc00&gt;&lt;b&gt;Броня:&lt;/b&gt; Ferro-Fibrous\n&lt;b&gt;Структура:&lt;/b&gt; Structure\n&lt;b&gt;Знач-я Б С &lt;/b&gt;\n&lt;b&gt;Перед&lt;/b&gt; 270 30\n&lt;b&gt;Лево&lt;/b&gt; 210 30\n&lt;b&gt;Право&lt;/b&gt; 210 30\n&lt;b&gt;Зад&lt;/b&gt; 200 30\n&lt;b&gt;Турель&lt;/b&gt; 210 30\n&lt;b&gt;Итого&lt;/b&gt; 1100 150&lt;/color&gt;\n\n&lt;color=#ff0000&gt;Особенность: Основной боевой танк&lt;/color&gt;"</t>
+  </si>
+  <si>
     <t>vehiclechassisdef_PALISADE_Solaris.YangsThoughts</t>
   </si>
   <si>
@@ -13524,6 +13575,9 @@
     <t>"Not a common site in the arenas; the Partisan is slow, undergunned and poorly armoured. The Partisan piloted by Ka-Lai Guo is not. Armed with paired AC/5's and Clan made UAC/5's - the accuracy of which is ensured by a massive Clan Targeting Computer - Ka-Lai's Partisan can shred most foes before they get close. Mixing the weapons systems minimises the risk of a crippling jam knocking all the weapons out and allows for non standard ammo to be loaded in the AC/5's. A Fuel Cell is used to boost the Tanks armour to more survivable levels.\n\n&lt;b&gt;&lt;color=#ffcc00&gt;Fuel Cell: Improved vehicle engine that works in a Vacuum.&lt;/color&gt;&lt;/b&gt;\n\n&lt;b&gt;&lt;color=#ffcc00&gt;Movement: 3/5 Hex: 90/150 Meters.&lt;/color&gt;&lt;/b&gt;\n\n&lt;color=#ffcc00&gt;&lt;b&gt;Armor:&lt;/b&gt; Heavy Ferro-Fibrous\n&lt;b&gt;Structure:&lt;/b&gt; Structure\n&lt;b&gt;Values       A        S  &lt;/b&gt;\n&lt;b&gt;Front&lt;/b&gt;       160     40\n&lt;b&gt;Left&lt;/b&gt;         140     40\n&lt;b&gt;Right&lt;/b&gt;       140     40\n&lt;b&gt;Rear&lt;/b&gt;        120     40\n&lt;b&gt;Turret&lt;/b&gt;      160     40\n\n&lt;b&gt;Total&lt;/b&gt;      720    200&lt;/color&gt;\n\n&lt;color=#ff0000&gt;Quirk: Anti-Air Targeting&lt;/color&gt;"</t>
   </si>
   <si>
+    <t>"Not a common site in the arenas; the Partisan is slow, undergunned and poorly armoured. The Partisan piloted by Ka-Lai Guo is not. Armed with paired AC/5's and Clan made UAC/5's - the accuracy of which is ensured by a massive Clan Targeting Computer - Ka-Lai's Partisan can shred most foes before they get close. Mixing the weapons systems minimises the risk of a crippling jam knocking all the weapons out and allows for non standard ammo to be loaded in the AC/5's. A Fuel Cell is used to boost the Tanks armour to more survivable levels.\n\n&lt;b&gt;&lt;color=#ffcc00&gt;Топливная ячейка: улучшенный двигатель, работающий в вакууме.&lt;/color&gt;&lt;/b&gt;\n\n&lt;b&gt;&lt;color=#ffcc00&gt;Передвижение: 3/5 Hex: 90/150 Meters.&lt;/color&gt;&lt;/b&gt;\n\n&lt;color=#ffcc00&gt;&lt;b&gt;Броня:&lt;/b&gt; Heavy Ferro-Fibrous\n&lt;b&gt;Структура:&lt;/b&gt; Structure\n&lt;b&gt;Знач-я Б С &lt;/b&gt;\n&lt;b&gt;Перед&lt;/b&gt; 160 40\n&lt;b&gt;Лево&lt;/b&gt; 140 40\n&lt;b&gt;Право&lt;/b&gt; 140 40\n&lt;b&gt;Зад&lt;/b&gt; 120 40\n&lt;b&gt;Турель&lt;/b&gt; 160 40\n&lt;b&gt;Итого&lt;/b&gt; 720 200&lt;/color&gt;\n\n&lt;color=#ff0000&gt;Особенность: Противовоздушное наведение&lt;/color&gt;"</t>
+  </si>
+  <si>
     <t>vehiclechassisdef_PARTISAN_SOLARIS.YangsThoughts</t>
   </si>
   <si>
@@ -13533,6 +13587,9 @@
     <t>"The Pike was created at the direction of Magestrix Kyalla Centrella of the Magistracy of Canopus during the later part of the Third Succession War. Her plan was to produce an inexpensive combat vehicle so the Great Houses would wear down their BattleMech armies through attrition, and the Pike would be the tool she envisioned for the task. However, sending vehicles to market in the Inner Sphere was to be more costly than anticipated. With the Great Houses' shrinking numbers of ships in their JumpShip fleets, the vehicle did not make the impact she had hoped it would. It became a favorite of ComStar's growing garrison forces for their HPG complexes.\n\n&lt;b&gt;&lt;color=#ffcc00&gt;Fuel Cell: Improved vehicle engine that works in a Vacuum.&lt;/color&gt;&lt;/b&gt;\n\n&lt;b&gt;&lt;color=#ffcc00&gt;Movement: 3/5 Hex: 90/150 Meters.&lt;/color&gt;&lt;/b&gt;\n\n&lt;color=#ffcc00&gt;&lt;b&gt;Armor:&lt;/b&gt; Ferro-Fibrous\n&lt;b&gt;Structure:&lt;/b&gt; Structure\n&lt;b&gt;Values       A        S  &lt;/b&gt;\n&lt;b&gt;Front&lt;/b&gt;       210     30\n&lt;b&gt;Left&lt;/b&gt;         190     30\n&lt;b&gt;Right&lt;/b&gt;       190     30\n&lt;b&gt;Rear&lt;/b&gt;        170     30\n&lt;b&gt;Turret&lt;/b&gt;      210     30\n\n&lt;b&gt;Total&lt;/b&gt;      970    150&lt;/color&gt;\n\n&lt;color=#ff0000&gt;Quirk: Accurate Weapon - Missiles&lt;/color&gt;"</t>
   </si>
   <si>
+    <t>"The Pike was created at the direction of Magestrix Kyalla Centrella of the Magistracy of Canopus during the later part of the Third Succession War. Her plan was to produce an inexpensive combat vehicle so the Great Houses would wear down their BattleMech armies through attrition, and the Pike would be the tool she envisioned for the task. However, sending vehicles to market in the Inner Sphere was to be more costly than anticipated. With the Great Houses' shrinking numbers of ships in their JumpShip fleets, the vehicle did not make the impact she had hoped it would. It became a favorite of ComStar's growing garrison forces for their HPG complexes.\r\n\r\n&lt;b&gt;&lt;color=#ffcc00&gt;Топливная ячейка: улучшенный двигатель, работающий в вакууме.&lt;/color&gt;&lt;/b&gt;\r\n\r\n&lt;b&gt;&lt;color=#ffcc00&gt;Передвижение: 3/5 Hex: 90/150 Meters.&lt;/color&gt;&lt;/b&gt;\r\n\r\n&lt;color=#ffcc00&gt;&lt;b&gt;Броня:&lt;/b&gt; Ferro-Fibrous\n&lt;b&gt;Структура:&lt;/b&gt; Structure\n&lt;b&gt;Значения Б С &lt;/b&gt;\n&lt;b&gt;Перед&lt;/b&gt; 210 30\n&lt;b&gt;Лево&lt;/b&gt; 190 30\n&lt;b&gt;Право&lt;/b&gt; 190 30\n&lt;b&gt;Зад&lt;/b&gt; 170 30\n&lt;b&gt;Турель&lt;/b&gt; 210 30\r\n\r\n&lt;b&gt;Итого&lt;/b&gt; 970 150&lt;/color&gt;\r\n\r\n&lt;color=#ff0000&gt;Особенность: Точное оружие - Missiles&lt;/color&gt;"</t>
+  </si>
+  <si>
     <t>vehiclechassisdef_PIKE_Solaris.YangsThoughts</t>
   </si>
   <si>
@@ -13542,6 +13599,9 @@
     <t>"Fast and versatile, the Light Tank is poorly suited to direct combat but has a variety of other uses. Intended as a scout or vanguard unit, the Light Tank is constantly on the move, probing ahead of the rest of the troops.\n\n&lt;b&gt;&lt;color=#ffcc00&gt;Fuel Cell: Improved vehicle engine that works in a Vacuum.&lt;/color&gt;&lt;/b&gt;\n\n&lt;b&gt;&lt;color=#ffcc00&gt;Movement: 9/14 Hex: 270/420 Meters.&lt;/color&gt;&lt;/b&gt;\n\n&lt;color=#ffcc00&gt;&lt;b&gt;Armor:&lt;/b&gt; Ferro-Fibrous\n&lt;b&gt;Structure:&lt;/b&gt; Structure\n&lt;b&gt;Values       A        S  &lt;/b&gt;\n&lt;b&gt;Front&lt;/b&gt;       120     20\n&lt;b&gt;Left&lt;/b&gt;          90     20\n&lt;b&gt;Right&lt;/b&gt;        90     20\n&lt;b&gt;Rear&lt;/b&gt;         80     20\n&lt;b&gt;Turret&lt;/b&gt;      120     20\n\n&lt;b&gt;Total&lt;/b&gt;      500    100&lt;/color&gt;\n\n&lt;color=#ff0000&gt;Quirk: Accurate Weapon - Missiles&lt;/color&gt;"</t>
   </si>
   <si>
+    <t>"Быстрый и универсальный, легкий танк мало приспособлен для прямого боя, но имеет целый ряд других возможностей. Предназначенный в качестве разведчика, легкий танк постоянно находится в движении, прощупывая путь для остальных войск.\n\n&lt;b&gt;&lt;color=#ffcc00&gt;Топливная ячейка: улучшенный двигатель, работающий в вакууме.&lt;/color&gt;&lt;/b&gt;\n\n&lt;b&gt;&lt;color=#ffcc00&gt;Передвижение: 9/14 Hex: 270/420 Meters.&lt;/color&gt;&lt;/b&gt;\n\n&lt;color=#ffcc00&gt;&lt;b&gt;Броня:&lt;/b&gt; Ferro-Fibrous\n&lt;b&gt;Структура:&lt;/b&gt; Structure\n&lt;b&gt;Знач-я Б С &lt;/b&gt;\n&lt;b&gt;Перед&lt;/b&gt; 120 20\n&lt;b&gt;Лево&lt;/b&gt; 90 20\n&lt;b&gt;Право&lt;/b&gt; 90 20\n&lt;b&gt;Зад&lt;/b&gt; 80 20\n&lt;b&gt;Турель&lt;/b&gt; 120 20\n&lt;b&gt;Итого&lt;/b&gt; 500 100&lt;/color&gt;\n\n&lt;color=#ff0000&gt;Особенность: Точное оружие - Missiles&lt;/color&gt;"</t>
+  </si>
+  <si>
     <t>vehiclechassisdef_PLAINSMAN_Solaris.YangsThoughts</t>
   </si>
   <si>
@@ -13551,6 +13611,9 @@
     <t>"While often derided as a poor man's Rommel/Patton tank, the simply constructed and dependable Po Heavy Tank, named by Romano Liao for the mischievous and vengeful spirit of Chinese tradition, has become the principal combat vehicle on Capellan worlds lacking 'Mech units. Introduced in 3031, the Po is built around the rugged, dependable, and cheap Ceres 240 internal combustion engine, which gives the tank a maximum flank speed of 65 kph. Ten and half tons of armor provides respectable protection for a heavy tank. Along with its ease of maintenance and decent firepower, this protection has made the Po a popular choice among cash strapped mercenaries, lower ranked garrison units, the Free Worlds League and Word of Blake, with such export sales keeping much needed funds flowing into the Confederation's coffers.\n\n&lt;b&gt;&lt;color=#ffcc00&gt;Fusion: Expensive engine that works in a Vacuum.&lt;/color&gt;&lt;/b&gt;\n\n&lt;b&gt;&lt;color=#ffcc00&gt;Movement: 4/6 Hex: 120/180 Meters.&lt;/color&gt;&lt;/b&gt;\n\n&lt;color=#ffcc00&gt;&lt;b&gt;Armor:&lt;/b&gt; Armor\n&lt;b&gt;Structure:&lt;/b&gt; Structure\n&lt;b&gt;Values       A        S  &lt;/b&gt;\n&lt;b&gt;Front&lt;/b&gt;       200     30\n&lt;b&gt;Left&lt;/b&gt;         180     30\n&lt;b&gt;Right&lt;/b&gt;       180     30\n&lt;b&gt;Rear&lt;/b&gt;        160     30\n&lt;b&gt;Turret&lt;/b&gt;      200     30\n\n&lt;b&gt;Total&lt;/b&gt;      920    150&lt;/color&gt;\n\n&lt;color=#ff0000&gt;Quirk: Main Battle Tank&lt;/color&gt;"</t>
   </si>
   <si>
+    <t>"While often derided as a poor man's Rommel/Patton tank, the simply constructed and dependable Po Heavy Tank, named by Romano Liao for the mischievous and vengeful spirit of Chinese tradition, has become the principal combat vehicle on Capellan worlds lacking 'Mech units. Introduced in 3031, the Po is built around the rugged, dependable, and cheap Ceres 240 internal combustion engine, which gives the tank a maximum flank speed of 65 kph. Ten and half tons of armor provides respectable protection for a heavy tank. Along with its ease of maintenance and decent firepower, this protection has made the Po a popular choice among cash strapped mercenaries, lower ranked garrison units, the Free Worlds League and Word of Blake, with such export sales keeping much needed funds flowing into the Confederation's coffers.\r\n\r\n&lt;b&gt;&lt;color=#ffcc00&gt;Термоядерный: дорогой двигатель, работающий в вакууме.&lt;/color&gt;&lt;/b&gt;\r\n\r\n&lt;b&gt;&lt;color=#ffcc00&gt;Передвижение: 4/6 Hex: 120/180 Meters.&lt;/color&gt;&lt;/b&gt;\r\n\r\n&lt;color=#ffcc00&gt;&lt;b&gt;Броня:&lt;/b&gt; Броня\n&lt;b&gt;Структура:&lt;/b&gt; Структура\n&lt;b&gt;Значения Б С &lt;/b&gt;\n&lt;b&gt;Перед&lt;/b&gt; 200 30\n&lt;b&gt;Лево&lt;/b&gt; 180 30\n&lt;b&gt;Право&lt;/b&gt; 180 30\n&lt;b&gt;Зад&lt;/b&gt; 160 30\n&lt;b&gt;Турель&lt;/b&gt; 200 30\r\n\r\n&lt;b&gt;Итого&lt;/b&gt; 920 150&lt;/color&gt;\r\n\r\n&lt;color=#ff0000&gt;Особенность: Основной боевой танк&lt;/color&gt;"</t>
+  </si>
+  <si>
     <t>vehiclechassisdef_PO_Solaris.YangsThoughts</t>
   </si>
   <si>
@@ -13560,6 +13623,9 @@
     <t>"Not many people can say they won a tank in a legal dispute, but Rafael Lopez managed to. Caught up in a business dispute with some partners, the engineer found himself stuck with a Puma assault tank he didn't need or want. Initially entering the minor leagues as a hobby, he eventually switched professions and now drives his customised Puma fulltime. Lightly modified compared to some tanks, his Puma has had the standard 285 Fusion Engine upgraded to an XL model. With the newly free weight, the PPC has been upgraded to an ER model and the SRM and LRM launchers augmented with Artemis IV. A light covering of Ferro Fibrous plating improves the Tanks armour.\n\n&lt;b&gt;&lt;color=#ffcc00&gt;Fusion: Expensive engine that works in a Vacuum.&lt;/color&gt;&lt;/b&gt;\n\n&lt;b&gt;&lt;color=#ffcc00&gt;Movement: 3/5 Hex: 90/150 Meters.&lt;/color&gt;&lt;/b&gt;\n\n&lt;color=#ffcc00&gt;&lt;b&gt;Armor:&lt;/b&gt; Ferro-Fibrous\n&lt;b&gt;Structure:&lt;/b&gt; Structure\n&lt;b&gt;Values       A        S  &lt;/b&gt;\n&lt;b&gt;Front&lt;/b&gt;       280     50\n&lt;b&gt;Left&lt;/b&gt;         200     50\n&lt;b&gt;Right&lt;/b&gt;       200     50\n&lt;b&gt;Rear&lt;/b&gt;        140     50\n&lt;b&gt;Turret&lt;/b&gt;      280     50\n\n&lt;b&gt;Total&lt;/b&gt;      1100    250&lt;/color&gt;\n\n&lt;color=#ff0000&gt;Quirk: Main Battle Tank&lt;/color&gt;"</t>
   </si>
   <si>
+    <t>"Not many people can say they won a tank in a legal dispute, but Rafael Lopez managed to. Caught up in a business dispute with some partners, the engineer found himself stuck with a Puma assault tank he didn't need or want. Initially entering the minor leagues as a hobby, he eventually switched professions and now drives his customised Puma fulltime. Lightly modified compared to some tanks, his Puma has had the standard 285 Fusion Engine upgraded to an XL model. With the newly free weight, the PPC has been upgraded to an ER model and the SRM and LRM launchers augmented with Artemis IV. A light covering of Ferro Fibrous plating improves the Tanks armour.\n\n&lt;b&gt;&lt;color=#ffcc00&gt;Термоядерный: дорогой двигатель, работающий в вакууме.&lt;/color&gt;&lt;/b&gt;\n\n&lt;b&gt;&lt;color=#ffcc00&gt;Передвижение: 3/5 Hex: 90/150 Meters.&lt;/color&gt;&lt;/b&gt;\n\n&lt;color=#ffcc00&gt;&lt;b&gt;Броня:&lt;/b&gt; Ferro-Fibrous\n&lt;b&gt;Структура:&lt;/b&gt; Structure\n&lt;b&gt;Знач-я Б С &lt;/b&gt;\n&lt;b&gt;Перед&lt;/b&gt; 280 50\n&lt;b&gt;Лево&lt;/b&gt; 200 50\n&lt;b&gt;Право&lt;/b&gt; 200 50\n&lt;b&gt;Зад&lt;/b&gt; 140 50\n&lt;b&gt;Турель&lt;/b&gt; 280 50\n&lt;b&gt;Итого&lt;/b&gt; 1100 250&lt;/color&gt;\n\n&lt;color=#ff0000&gt;Особенность: Основной боевой танк&lt;/color&gt;"</t>
+  </si>
+  <si>
     <t>vehiclechassisdef_PUMA_SOLARIS.YangsThoughts</t>
   </si>
   <si>
@@ -13569,6 +13635,9 @@
     <t>"Traditionally used as a fire support vehicle and kept far back from the action, the Rhino is usually a slow and fairly defenceless tank at close range. Aaron McMinn's is not. The former LCAF Tank commander spared no expense in the outfighting of his. The standard 240 rated Fusion Engine has been ripped out and replaced by a massive 320 rated XL Engine. A Supercharger further augments the Rhinos speed; with a top speed of over 80 kph, the Rhino can often outrun lighter opponents. Close in defences have been augmented with a pair of Medium Pulse Lasers and the LRM's exchanged for Clan equivalents with Artemis IV systems installed. Lastly, the Rhino is replated in Ferro Fibrous, considerably improving the vehicles armour.\n\n&lt;b&gt;&lt;color=#ffcc00&gt;Fusion: Expensive engine that works in a Vacuum.&lt;/color&gt;&lt;/b&gt;\n\n&lt;b&gt;&lt;color=#ffcc00&gt;Movement: 4/6 Hex: 120/180 Meters.&lt;/color&gt;&lt;/b&gt;\n\n&lt;color=#ffcc00&gt;&lt;b&gt;Armor:&lt;/b&gt; Ferro-Fibrous\n&lt;b&gt;Structure:&lt;/b&gt; Structure\n&lt;b&gt;Values       A        S  &lt;/b&gt;\n&lt;b&gt;Front&lt;/b&gt;       350     40\n&lt;b&gt;Left&lt;/b&gt;         290     40\n&lt;b&gt;Right&lt;/b&gt;       290     40\n&lt;b&gt;Rear&lt;/b&gt;        225     40\n&lt;b&gt;Turret&lt;/b&gt;      310     40\n\n&lt;b&gt;Total&lt;/b&gt;      1465    200&lt;/color&gt;\n\n&lt;color=#ff0000&gt;Quirk: Improved Targeting - Long&lt;/color&gt;"</t>
   </si>
   <si>
+    <t>"Traditionally used as a fire support vehicle and kept far back from the action, the Rhino is usually a slow and fairly defenceless tank at close range. Aaron McMinn's is not. The former LCAF Tank commander spared no expense in the outfighting of his. The standard 240 rated Fusion Engine has been ripped out and replaced by a massive 320 rated XL Engine. A Supercharger further augments the Rhinos speed; with a top speed of over 80 kph, the Rhino can often outrun lighter opponents. Close in defences have been augmented with a pair of Medium Pulse Lasers and the LRM's exchanged for Clan equivalents with Artemis IV systems installed. Lastly, the Rhino is replated in Ferro Fibrous, considerably improving the vehicles armour.\r\n\r\n&lt;b&gt;&lt;color=#ffcc00&gt;Термоядерный: дорогой двигатель, работающий в вакууме.&lt;/color&gt;&lt;/b&gt;\r\n\r\n&lt;b&gt;&lt;color=#ffcc00&gt;Передвижение: 4/6 Hex: 120/180 Meters.&lt;/color&gt;&lt;/b&gt;\r\n\r\n&lt;color=#ffcc00&gt;&lt;b&gt;Броня:&lt;/b&gt; Ferro-Fibrous\n&lt;b&gt;Структура:&lt;/b&gt; Structure\n&lt;b&gt;Значения Б С &lt;/b&gt;\n&lt;b&gt;Перед&lt;/b&gt; 350 40\n&lt;b&gt;Лево&lt;/b&gt; 290 40\n&lt;b&gt;Право&lt;/b&gt; 290 40\n&lt;b&gt;Зад&lt;/b&gt; 225 40\n&lt;b&gt;Турель&lt;/b&gt; 310 40\r\n\r\n&lt;b&gt;Итого&lt;/b&gt; 1465 200&lt;/color&gt;\r\n\r\n&lt;color=#ff0000&gt;Особенность: Улучшенное наведение - Long&lt;/color&gt;"</t>
+  </si>
+  <si>
     <t>vehiclechassisdef_RHINO_SOLARIS.YangsThoughts</t>
   </si>
   <si>
@@ -13578,6 +13647,9 @@
     <t>"The Rommel tank is a 65-ton armored combat vehicle, specializing in close range fighting and urban combat. Identical to its twin, the Patton, in every way but armament and armor configuration, the Rommel has primarily served with the Lyran Commonwealth and the Lyran Alliance. It is named after Field Marshal Erwin Rommel, a legendary commander of armored and mechanized forces renowned for his exploits during World War II on Terra. The Rommel was designed concurrently with the Patton in the early 3000s, when Defiance Industries decided that an armored combat vehicle capable of replacing 'Mechs was needed. Since 'Mech production was nearly at a standstill, the ability to produce and field armored vehicles became a necessity for every Successor State.\n\n&lt;b&gt;&lt;color=#ffcc00&gt;Fuel Cell: Improved vehicle engine that works in a Vacuum.&lt;/color&gt;&lt;/b&gt;\n\n&lt;b&gt;&lt;color=#ffcc00&gt;Movement: 4/6 Hex: 120/180 Meters.&lt;/color&gt;&lt;/b&gt;\n\n&lt;color=#ffcc00&gt;&lt;b&gt;Armor:&lt;/b&gt; Ferro-Fibrous\n&lt;b&gt;Structure:&lt;/b&gt; Structure\n&lt;b&gt;Values       A        S  &lt;/b&gt;\n&lt;b&gt;Front&lt;/b&gt;       220     35\n&lt;b&gt;Left&lt;/b&gt;         200     35\n&lt;b&gt;Right&lt;/b&gt;       200     35\n&lt;b&gt;Rear&lt;/b&gt;        150     35\n&lt;b&gt;Turret&lt;/b&gt;      220     35\n\n&lt;b&gt;Total&lt;/b&gt;      990    175&lt;/color&gt;\n\n&lt;color=#ff0000&gt;Quirk: Main Battle Tank&lt;/color&gt;"</t>
   </si>
   <si>
+    <t>"The Rommel tank is a 65-ton armored combat vehicle, specializing in close range fighting and urban combat. Identical to its twin, the Patton, in every way but armament and armor configuration, the Rommel has primarily served with the Lyran Commonwealth and the Lyran Alliance. It is named after Field Marshal Erwin Rommel, a legendary commander of armored and mechanized forces renowned for his exploits during World War II on Terra. The Rommel was designed concurrently with the Patton in the early 3000s, when Defiance Industries decided that an armored combat vehicle capable of replacing 'Mechs was needed. Since 'Mech production was nearly at a standstill, the ability to produce and field armored vehicles became a necessity for every Successor State.\r\n\r\n&lt;b&gt;&lt;color=#ffcc00&gt;Топливная ячейка: улучшенный двигатель, работающий в вакууме.&lt;/color&gt;&lt;/b&gt;\r\n\r\n&lt;b&gt;&lt;color=#ffcc00&gt;Передвижение: 4/6 Hex: 120/180 Meters.&lt;/color&gt;&lt;/b&gt;\r\n\r\n&lt;color=#ffcc00&gt;&lt;b&gt;Броня:&lt;/b&gt; Ferro-Fibrous\n&lt;b&gt;Структура:&lt;/b&gt; Structure\n&lt;b&gt;Значения Б С &lt;/b&gt;\n&lt;b&gt;Перед&lt;/b&gt; 220 35\n&lt;b&gt;Лево&lt;/b&gt; 200 35\n&lt;b&gt;Право&lt;/b&gt; 200 35\n&lt;b&gt;Зад&lt;/b&gt; 150 35\n&lt;b&gt;Турель&lt;/b&gt; 220 35\r\n\r\n&lt;b&gt;Итого&lt;/b&gt; 990 175&lt;/color&gt;\r\n\r\n&lt;color=#ff0000&gt;Особенность: Основной боевой танк&lt;/color&gt;"</t>
+  </si>
+  <si>
     <t>vehiclechassisdef_ROMMEL_SOLARIS.YangsThoughts</t>
   </si>
   <si>
@@ -13587,6 +13659,9 @@
     <t>"Sporting an unusual main weapon, Bernd Skorstad's Saladin Hover Tank also sports a custom built 105 rated Fusion Engine instead of the typical ICE engine. The reason for this minor novelty is the Binary Laser mounted in place of the standard Autocannon. Originating in a DCMS refit program long since abandoned and forgotten, Skorstad's Saladin hits almost as hard as a standard model and at nearly twice the range to boot. Installed recently, Ferro Fibrous plating improves armour protection; essential for the sort of matches Skorstad finds himself in.\n\n&lt;b&gt;&lt;color=#ffcc00&gt;Fusion: Expensive engine that works in a Vacuum.&lt;/color&gt;&lt;/b&gt;\n\n&lt;b&gt;&lt;color=#ffcc00&gt;Movement: 9/14 Hex: 270/420 Meters.&lt;/color&gt;&lt;/b&gt;\n\n&lt;color=#ffcc00&gt;&lt;b&gt;Armor:&lt;/b&gt; Ferro-Fibrous\n&lt;b&gt;Structure:&lt;/b&gt; Structure\n&lt;b&gt;Values       A        S  &lt;/b&gt;\n&lt;b&gt;Front&lt;/b&gt;       100     20\n&lt;b&gt;Left&lt;/b&gt;          80     20\n&lt;b&gt;Right&lt;/b&gt;        80     20\n&lt;b&gt;Rear&lt;/b&gt;         75     20\n\n&lt;b&gt;Total&lt;/b&gt;      335     80&lt;/color&gt;\n\n&lt;color=#ff0000&gt;Quirk: Rugged&lt;/color&gt;"</t>
   </si>
   <si>
+    <t>"Sporting an unusual main weapon, Bernd Skorstad's Saladin Hover Tank also sports a custom built 105 rated Fusion Engine instead of the typical ICE engine. The reason for this minor novelty is the Binary Laser mounted in place of the standard Autocannon. Originating in a DCMS refit program long since abandoned and forgotten, Skorstad's Saladin hits almost as hard as a standard model and at nearly twice the range to boot. Installed recently, Ferro Fibrous plating improves armour protection; essential for the sort of matches Skorstad finds himself in.\n\n&lt;b&gt;&lt;color=#ffcc00&gt;Термоядерный: дорогой двигатель, работающий в вакууме.&lt;/color&gt;&lt;/b&gt;\n\n&lt;b&gt;&lt;color=#ffcc00&gt;Передвижение: 9/14 Hex: 270/420 Meters.&lt;/color&gt;&lt;/b&gt;\n\n&lt;color=#ffcc00&gt;&lt;b&gt;Броня:&lt;/b&gt; Ferro-Fibrous\n&lt;b&gt;Структура:&lt;/b&gt; Structure\n&lt;b&gt;Знач-я Б С &lt;/b&gt;\n&lt;b&gt;Перед&lt;/b&gt; 100 20\n&lt;b&gt;Лево&lt;/b&gt; 80 20\n&lt;b&gt;Право&lt;/b&gt; 80 20\n&lt;b&gt;Зад&lt;/b&gt; 75 20\n&lt;b&gt;Итого&lt;/b&gt; 335 80&lt;/color&gt;\n\n&lt;color=#ff0000&gt;Особенность: Прочный&lt;/color&gt;"</t>
+  </si>
+  <si>
     <t>vehiclechassisdef_SALADIN_SOLARIS.YangsThoughts</t>
   </si>
   <si>
@@ -13596,6 +13671,9 @@
     <t>"Commanding the Scorpion Light Tank nicknamed Invincible, Olympia Capraru is on the 4th iteration of that name in 6 years; the previous models being lost in combat. This time around she publicly made a vow to not lose another Scorpion of that name and has contracted a smuggler making runs out of the Clan Occupation Zones to bring her stolen tech to augment the tank with. Currently aping the original SRM spec Scorpion, her Invincible has been extensively upgraded. The original SRM racks are long gone with a pair of Clan Streak SRM-6's installed in their place. The Machine Gun is swapped for an AMS. A Guardian ECM Suite rounds out the new loadout while a combination of a Fuel Cell and Ferro Fibrous bump the armour by a ton and allow CASE'd magazines for the ammo.\n\n&lt;b&gt;&lt;color=#ffcc00&gt;Fuel Cell: Improved vehicle engine that works in a Vacuum.&lt;/color&gt;&lt;/b&gt;\n\n&lt;b&gt;&lt;color=#ffcc00&gt;Movement: 4/6 Hex: 120/180 Meters.&lt;/color&gt;&lt;/b&gt;\n\n&lt;color=#ffcc00&gt;&lt;b&gt;Armor:&lt;/b&gt; Ferro-Fibrous\n&lt;b&gt;Structure:&lt;/b&gt; Structure\n&lt;b&gt;Values       A        S  &lt;/b&gt;\n&lt;b&gt;Front&lt;/b&gt;       110     15\n&lt;b&gt;Left&lt;/b&gt;          90     15\n&lt;b&gt;Right&lt;/b&gt;        90     15\n&lt;b&gt;Rear&lt;/b&gt;         70     15\n&lt;b&gt;Turret&lt;/b&gt;      100     15\n\n&lt;b&gt;Total&lt;/b&gt;      460     75&lt;/color&gt;\n\n&lt;color=#ff0000&gt;Quirk: Protected Mechanisms&lt;/color&gt;"</t>
   </si>
   <si>
+    <t>"Commanding the Scorpion Light Tank nicknamed Invincible, Olympia Capraru is on the 4th iteration of that name in 6 years; the previous models being lost in combat. This time around she publicly made a vow to not lose another Scorpion of that name and has contracted a smuggler making runs out of the Clan Occupation Zones to bring her stolen tech to augment the tank with. Currently aping the original SRM spec Scorpion, her Invincible has been extensively upgraded. The original SRM racks are long gone with a pair of Clan Streak SRM-6's installed in their place. The Machine Gun is swapped for an AMS. A Guardian ECM Suite rounds out the new loadout while a combination of a Fuel Cell and Ferro Fibrous bump the armour by a ton and allow CASE'd magazines for the ammo.\n\n&lt;b&gt;&lt;color=#ffcc00&gt;Топливная ячейка: улучшенный двигатель, работающий в вакууме.&lt;/color&gt;&lt;/b&gt;\n\n&lt;b&gt;&lt;color=#ffcc00&gt;Передвижение: 4/6 Hex: 120/180 Meters.&lt;/color&gt;&lt;/b&gt;\n\n&lt;color=#ffcc00&gt;&lt;b&gt;Броня:&lt;/b&gt; Ferro-Fibrous\n&lt;b&gt;Структура:&lt;/b&gt; Structure\n&lt;b&gt;Знач-я Б С &lt;/b&gt;\n&lt;b&gt;Перед&lt;/b&gt; 110 15\n&lt;b&gt;Лево&lt;/b&gt; 90 15\n&lt;b&gt;Право&lt;/b&gt; 90 15\n&lt;b&gt;Зад&lt;/b&gt; 70 15\n&lt;b&gt;Турель&lt;/b&gt; 100 15\n&lt;b&gt;Итого&lt;/b&gt; 460 75&lt;/color&gt;\n\n&lt;color=#ff0000&gt;Особенность: Защищенные механизмы&lt;/color&gt;"</t>
+  </si>
+  <si>
     <t>vehiclechassisdef_SCORPION_Solaris.YangsThoughts</t>
   </si>
   <si>
@@ -13605,6 +13683,9 @@
     <t>"Having broken multiple league records for the number of successful rams done in a single match, it shouldn't be a surprise that Karen Hathaway's Sturmfeur has been customised with a supercharger. The standard ICE has been swapped for a lighter Fuel Cell, allowing the LRM-20's to be augmented with Artemis IV and Guardian ECM added to the tank.\n\n&lt;b&gt;&lt;color=#ffcc00&gt;Fusion: Expensive engine that works in a Vacuum.&lt;/color&gt;&lt;/b&gt;\n\n&lt;b&gt;&lt;color=#ffcc00&gt;Movement: 3/5 Hex: 90/150 Meters.&lt;/color&gt;&lt;/b&gt;\n\n&lt;color=#ffcc00&gt;&lt;b&gt;Armor:&lt;/b&gt; Armor\n&lt;b&gt;Structure:&lt;/b&gt; Structure\n&lt;b&gt;Values       A        S  &lt;/b&gt;\n&lt;b&gt;Front&lt;/b&gt;       360     45\n&lt;b&gt;Left&lt;/b&gt;         330     45\n&lt;b&gt;Right&lt;/b&gt;       330     45\n&lt;b&gt;Rear&lt;/b&gt;        240     45\n&lt;b&gt;Turret&lt;/b&gt;      350     45\n\n&lt;b&gt;Total&lt;/b&gt;      1610    225&lt;/color&gt;\n\n&lt;color=#ff0000&gt;Quirk: Accurate Weapon - Missiles&lt;/color&gt;"</t>
   </si>
   <si>
+    <t>"Having broken multiple league records for the number of successful rams done in a single match, it shouldn't be a surprise that Karen Hathaway's Sturmfeur has been customised with a supercharger. The standard ICE has been swapped for a lighter Fuel Cell, allowing the LRM-20's to be augmented with Artemis IV and Guardian ECM added to the tank.\n\n&lt;b&gt;&lt;color=#ffcc00&gt;Термоядерный: дорогой двигатель, работающий в вакууме.&lt;/color&gt;&lt;/b&gt;\n\n&lt;b&gt;&lt;color=#ffcc00&gt;Передвижение: 3/5 Hex: 90/150 Meters.&lt;/color&gt;&lt;/b&gt;\n\n&lt;color=#ffcc00&gt;&lt;b&gt;Броня:&lt;/b&gt; Броня\n&lt;b&gt;Структура:&lt;/b&gt; Структура\n&lt;b&gt;Знач-я Б С &lt;/b&gt;\n&lt;b&gt;Перед&lt;/b&gt; 360 45\n&lt;b&gt;Лево&lt;/b&gt; 330 45\n&lt;b&gt;Право&lt;/b&gt; 330 45\n&lt;b&gt;Зад&lt;/b&gt; 240 45\n&lt;b&gt;Турель&lt;/b&gt; 350 45\n&lt;b&gt;Итого&lt;/b&gt; 1610 225&lt;/color&gt;\n\n&lt;color=#ff0000&gt;Особенность: Точное оружие - Missiles&lt;/color&gt;"</t>
+  </si>
+  <si>
     <t>vehiclechassisdef_STURMFEUR_SOLARIS.YangsThoughts</t>
   </si>
   <si>
@@ -13614,6 +13695,9 @@
     <t>"Iwao Kogawa is a former DCMS test pilot turned mercenary turned Solaris Jockey. His Vedette is all that remains of the abandoned program to outfight conventual units with Blazers. Needed to manage the power demands and waste heat of the Blazer, the Vedettes 250 rated ICE has been swapped for a Fusion Engine taken from a damaged Trebuchet. After market modifications made since Kogawa turned Merc include swapping the Machine Gun with an AMS and reskinning the Vedette in Ferro Fibrous.\n\n&lt;b&gt;&lt;color=#ffcc00&gt;Fusion: Expensive engine that works in a Vacuum.&lt;/color&gt;&lt;/b&gt;\n\n&lt;b&gt;&lt;color=#ffcc00&gt;Movement: 5/8 Hex: 150/240 Meters.&lt;/color&gt;&lt;/b&gt;\n\n&lt;color=#ffcc00&gt;&lt;b&gt;Armor:&lt;/b&gt; Ferro-Fibrous\n&lt;b&gt;Structure:&lt;/b&gt; Structure\n&lt;b&gt;Values       A        S  &lt;/b&gt;\n&lt;b&gt;Front&lt;/b&gt;       120     25\n&lt;b&gt;Left&lt;/b&gt;         100     25\n&lt;b&gt;Right&lt;/b&gt;       100     25\n&lt;b&gt;Rear&lt;/b&gt;        120     25\n&lt;b&gt;Turret&lt;/b&gt;      120     25\n\n&lt;b&gt;Total&lt;/b&gt;      560    125&lt;/color&gt;\n\n&lt;color=#ff0000&gt;Quirk: Quick Off The Line&lt;/color&gt;"</t>
   </si>
   <si>
+    <t>"Iwao Kogawa is a former DCMS test pilot turned mercenary turned Solaris Jockey. His Vedette is all that remains of the abandoned program to outfight conventual units with Blazers. Needed to manage the power demands and waste heat of the Blazer, the Vedettes 250 rated ICE has been swapped for a Fusion Engine taken from a damaged Trebuchet. After market modifications made since Kogawa turned Merc include swapping the Machine Gun with an AMS and reskinning the Vedette in Ferro Fibrous.\n\n&lt;b&gt;&lt;color=#ffcc00&gt;Термоядерный: дорогой двигатель, работающий в вакууме.&lt;/color&gt;&lt;/b&gt;\n\n&lt;b&gt;&lt;color=#ffcc00&gt;Передвижение: 5/8 Hex: 150/240 Meters.&lt;/color&gt;&lt;/b&gt;\n\n&lt;color=#ffcc00&gt;&lt;b&gt;Броня:&lt;/b&gt; Ferro-Fibrous\n&lt;b&gt;Структура:&lt;/b&gt; Structure\n&lt;b&gt;Знач-я Б С &lt;/b&gt;\n&lt;b&gt;Перед&lt;/b&gt; 120 25\n&lt;b&gt;Лево&lt;/b&gt; 100 25\n&lt;b&gt;Право&lt;/b&gt; 100 25\n&lt;b&gt;Зад&lt;/b&gt; 120 25\n&lt;b&gt;Турель&lt;/b&gt; 120 25\n&lt;b&gt;Итого&lt;/b&gt; 560 125&lt;/color&gt;\n\n&lt;color=#ff0000&gt;Особенность: Быстрый уход с линии&lt;/color&gt;"</t>
+  </si>
+  <si>
     <t>vehiclechassisdef_VEDETTE_Solaris.YangsThoughts</t>
   </si>
   <si>
@@ -13623,6 +13707,9 @@
     <t>"In 3030, Aldis Industries deployed the successful follow up to its venerable Demolisher design, the slightly lighter Zhukov. While it shares many of the parts and features of the design that inspired it, the Zhukov is smaller, better armored, and packs less weaponry than its predecessor. Its first major deployment was with the Wolf's Dragoons whereupon the Zhukov has since seen constant improvements and tweaks as suggested to Aldis Industries by the field units that use it. The Zhukov's strength is its relative simplicity. Two turret mounted SarLon MaxiCannon Autocannon/10s are more than adequate at providing sufficient firepower for the discriminating buyer while imitating its larger cousin the Demolisher.\n\n&lt;b&gt;&lt;color=#ffcc00&gt;Fuel Cell: Improved vehicle engine that works in a Vacuum.&lt;/color&gt;&lt;/b&gt;\n\n&lt;b&gt;&lt;color=#ffcc00&gt;Movement: 3/5 Hex: 90/150 Meters.&lt;/color&gt;&lt;/b&gt;\n\n&lt;color=#ffcc00&gt;&lt;b&gt;Armor:&lt;/b&gt; Ferro-Fibrous\n&lt;b&gt;Structure:&lt;/b&gt; Structure\n&lt;b&gt;Values       A        S  &lt;/b&gt;\n&lt;b&gt;Front&lt;/b&gt;       250     40\n&lt;b&gt;Left&lt;/b&gt;         190     40\n&lt;b&gt;Right&lt;/b&gt;       190     40\n&lt;b&gt;Rear&lt;/b&gt;        150     40\n&lt;b&gt;Turret&lt;/b&gt;      250     40\n\n&lt;b&gt;Total&lt;/b&gt;      1030    200&lt;/color&gt;\n\n&lt;color=#ff0000&gt;Quirk: Main Battle Tank&lt;/color&gt;"</t>
   </si>
   <si>
+    <t>"In 3030, Aldis Industries deployed the successful follow up to its venerable Demolisher design, the slightly lighter Zhukov. While it shares many of the parts and features of the design that inspired it, the Zhukov is smaller, better armored, and packs less weaponry than its predecessor. Its first major deployment was with the Wolf's Dragoons whereupon the Zhukov has since seen constant improvements and tweaks as suggested to Aldis Industries by the field units that use it. The Zhukov's strength is its relative simplicity. Two turret mounted SarLon MaxiCannon Autocannon/10s are more than adequate at providing sufficient firepower for the discriminating buyer while imitating its larger cousin the Demolisher.\n\n&lt;b&gt;&lt;color=#ffcc00&gt;Топливная ячейка: улучшенный двигатель, работающий в вакууме.&lt;/color&gt;&lt;/b&gt;\n\n&lt;b&gt;&lt;color=#ffcc00&gt;Передвижение: 3/5 Hex: 90/150 Meters.&lt;/color&gt;&lt;/b&gt;\n\n&lt;color=#ffcc00&gt;&lt;b&gt;Броня:&lt;/b&gt; Ferro-Fibrous\n&lt;b&gt;Структура:&lt;/b&gt; Structure\n&lt;b&gt;Знач-я Б С &lt;/b&gt;\n&lt;b&gt;Перед&lt;/b&gt; 250 40\n&lt;b&gt;Лево&lt;/b&gt; 190 40\n&lt;b&gt;Право&lt;/b&gt; 190 40\n&lt;b&gt;Зад&lt;/b&gt; 150 40\n&lt;b&gt;Турель&lt;/b&gt; 250 40\n&lt;b&gt;Итого&lt;/b&gt; 1030 200&lt;/color&gt;\n\n&lt;color=#ff0000&gt;Особенность: Основной боевой танк&lt;/color&gt;"</t>
+  </si>
+  <si>
     <t>vehiclechassisdef_ZHUKOV_SOLARIS.YangsThoughts</t>
   </si>
   <si>
@@ -13783,93 +13870,6 @@
   </si>
   <si>
     <t>mechdef_scorpion_SCP-S7.Description.Details</t>
-  </si>
-  <si>
-    <t>"A customised Behemoth model A of uncertain origin outfitted in rare LosTech, this tank is the property of the Solaris Tank Jockey Scott Mayur. The main guns are replaced with vintage LB-10X Auto-cannons, 4 Streak SRM-2's are mounted in place of the LRM-5's and a pair of LRM-10 racks take the place of the original SRM-6's. These changes are enabled by the new 200 rated Fusion Engine, allegedly salvaged from a downed Enforcer. Where the LosTech came from or who provided the technical assistance needed for the retrofit is unclear.\n\n&lt;b&gt;&lt;color=#ffcc00&gt;Термоядерный: дорогой двигатель, работающий в вакууме.&lt;/color&gt;&lt;/b&gt;\n\n&lt;b&gt;&lt;color=#ffcc00&gt;Передвижение: 2/3 Hex: 60/90 Meters.&lt;/color&gt;&lt;/b&gt;\n\n&lt;color=#ffcc00&gt;&lt;b&gt;Броня:&lt;/b&gt; Броня\n&lt;b&gt;Структура:&lt;/b&gt; Структура\n&lt;b&gt;Знач-я Б С &lt;/b&gt;\n&lt;b&gt;Перед&lt;/b&gt; 370 50\n&lt;b&gt;Лево&lt;/b&gt; 330 50\n&lt;b&gt;Право&lt;/b&gt; 330 50\n&lt;b&gt;Зад&lt;/b&gt; 325 50\n&lt;b&gt;Турель&lt;/b&gt; 370 50\n&lt;b&gt;Итого&lt;/b&gt; 1725 250&lt;/color&gt;\n\n&lt;color=#ff0000&gt;Особенность: Основной боевой танк&lt;/color&gt;"</t>
-  </si>
-  <si>
-    <t>"Long rumoured to be a representative of the Draconis Combine, Michika Miyazaki's latest refit of her beloved Brutus appear to confirm the rumours. A 225 rated XL Engine - allegedly sourced from a Komodo KIM-2 - and Ferro-Fibrous armour are the centrepiece of the upgrades though the most eye catching is a Clan spec targeting computer linked into the new ER Large Lasers. A pair of the Combines experimental MRM-10's replace the LRM-20 and a Beagle Active Probe rounds out the overhaul.\n\n&lt;b&gt;&lt;color=#ffcc00&gt;Термоядерный: дорогой двигатель, работающий в вакууме.&lt;/color&gt;&lt;/b&gt;\n\n&lt;b&gt;&lt;color=#ffcc00&gt;Передвижение: 3/5 Hex: 90/150 Meters.&lt;/color&gt;&lt;/b&gt;\n\n&lt;color=#ffcc00&gt;&lt;b&gt;Броня:&lt;/b&gt; Ferro-Fibrous\n&lt;b&gt;Структура:&lt;/b&gt; Structure\n&lt;b&gt;Знач-я Б С &lt;/b&gt;\n&lt;b&gt;Перед&lt;/b&gt; 190 40\n&lt;b&gt;Лево&lt;/b&gt; 150 40\n&lt;b&gt;Право&lt;/b&gt; 150 40\n&lt;b&gt;Зад&lt;/b&gt; 125 40\n&lt;b&gt;Турель&lt;/b&gt; 150 40\n&lt;b&gt;Итого&lt;/b&gt; 765 200&lt;/color&gt;\n\n&lt;color=#ff0000&gt;Особенность: Разнодальнее наведение&lt;/color&gt;"</t>
-  </si>
-  <si>
-    <t>"Hailing from the Free Rasalhague Republic, Tyra Murchie is often characterised as an eccentric genius. Her latest ride is proof of this. Originally a standard Bulldog MBT, it has been rebuilt around a custom made Fuel Cell engine. Taking advantage of the lighter engine, a Guardian ECM unit was installed and Clan spec Large Pulse Laser replaces the original Large Laser. Where the Laser came from or how Tyra managed to adapt the supposedly incompatible IS and Clan technology remains a mystery.\n\n&lt;b&gt;&lt;color=#ffcc00&gt;Топливная ячейка: улучшенный двигатель, работающий в вакууме.&lt;/color&gt;&lt;/b&gt;\n\n&lt;b&gt;&lt;color=#ffcc00&gt;Передвижение: 4/6 Hex: 120/180 Meters.&lt;/color&gt;&lt;/b&gt;\n\n&lt;color=#ffcc00&gt;&lt;b&gt;Броня:&lt;/b&gt; Броня\n&lt;b&gt;Структура:&lt;/b&gt; Структура\n&lt;b&gt;Знач-я Б С &lt;/b&gt;\n&lt;b&gt;Перед&lt;/b&gt; 140 30\n&lt;b&gt;Лево&lt;/b&gt; 120 30\n&lt;b&gt;Право&lt;/b&gt; 120 30\n&lt;b&gt;Зад&lt;/b&gt; 100 30\n&lt;b&gt;Турель&lt;/b&gt; 120 30\n&lt;b&gt;Итого&lt;/b&gt; 600 150&lt;/color&gt;\n\n&lt;color=#ff0000&gt;Особенность: Основной боевой танк&lt;/color&gt;"</t>
-  </si>
-  <si>
-    <t>"The Chevalier Light Tank was produced by and for the Star League. The Succession Wars devastated the stores of the Chevalier as the Successor States often cannibalized them for parts. Only Millennium Industries of Terra continued to produce the design, and that was snapped up by ComStar. Though the top speed is only 97 km/h, it is still respectable for a wheeled vehicle.\r\n\r\n&lt;b&gt;&lt;color=#ffcc00&gt;Термоядерный: дорогой двигатель, работающий в вакууме.&lt;/color&gt;&lt;/b&gt;\r\n\r\n&lt;b&gt;&lt;color=#ffcc00&gt;Передвижение: 6/9 Hex: 180/270 Meters.&lt;/color&gt;&lt;/b&gt;\r\n\r\n&lt;color=#ffcc00&gt;&lt;b&gt;Броня:&lt;/b&gt; Броня\n&lt;b&gt;Структура:&lt;/b&gt; Структура\n&lt;b&gt;Значения Б С &lt;/b&gt;\n&lt;b&gt;Перед&lt;/b&gt; 140 20\n&lt;b&gt;Лево&lt;/b&gt; 125 20\n&lt;b&gt;Право&lt;/b&gt; 125 20\n&lt;b&gt;Зад&lt;/b&gt; 110 20\n&lt;b&gt;Турель&lt;/b&gt; 120 20\r\n\r\n&lt;b&gt;Итого&lt;/b&gt; 620 100&lt;/color&gt;\r\n\r\n&lt;color=#ff0000&gt;Особенность: Легко управлять&lt;/color&gt;"</t>
-  </si>
-  <si>
-    <t>"A relative newcomer to the Solaris scene, Izak Cranworth is a former Mercenary and amateur archaeologist who struck it lucky. Stumbling on to a cache of SLDF spare parts, Izak was able to upgrade his battered Condor. Reskinning the tank in Ferro Fibrous and swapping the ICE for a similar sized 225 Fusion Engine - both sourced from wrecked Nightshade VTOL's - allowed Izak to upgrade the AC/5 to a UAC/5. The Machine Gun is replaced by an Anti Missile System and a pair of Medium Pulse Lasers replace the original Medium Lasers. A recently acquired ClanTech Targeting Computer drastically improves the accuracy of the disparate weapons array.\n\n&lt;b&gt;&lt;color=#ffcc00&gt;Термоядерный: дорогой двигатель, работающий в вакууме.&lt;/color&gt;&lt;/b&gt;\n\n&lt;b&gt;&lt;color=#ffcc00&gt;Передвижение: 8/12 Hex: 240/360 Meters.&lt;/color&gt;&lt;/b&gt;\n\n&lt;color=#ffcc00&gt;&lt;b&gt;Броня:&lt;/b&gt; Heavy Ferro-Fibrous\n&lt;b&gt;Структура:&lt;/b&gt; Structure\n&lt;b&gt;Знач-я Б С &lt;/b&gt;\n&lt;b&gt;Перед&lt;/b&gt; 170 25\n&lt;b&gt;Лево&lt;/b&gt; 100 25\n&lt;b&gt;Право&lt;/b&gt; 100 25\n&lt;b&gt;Зад&lt;/b&gt; 100 25\n&lt;b&gt;Турель&lt;/b&gt; 140 25\n&lt;b&gt;Итого&lt;/b&gt; 610 125&lt;/color&gt;\n\n&lt;color=#ff0000&gt;Особенность: Быстрый уход с линии&lt;/color&gt;"</t>
-  </si>
-  <si>
-    <t>"A familiar face on the Solaris circuits, Daovieng Li is back after an extended absence. A disastrous mishap in her last match resulted in the loss of her Ontos and Li is betting on her new Demolisher to carry her to victory. A modified copy of the standard vehicle, the Demolisher has been rebuilt around a massive ClanTech Targeting Computer; ensuring the feared 155mm ChemJets rarely miss. A custom made Fuel Cell frees up the weight needed for this and a Guardian ECM Suite.\n\n&lt;b&gt;&lt;color=#ffcc00&gt;Топливная ячейка: улучшенный двигатель, работающий в вакууме.&lt;/color&gt;&lt;/b&gt;\n\n&lt;b&gt;&lt;color=#ffcc00&gt;Передвижение: 3/5 Hex: 90/150 Meters.&lt;/color&gt;&lt;/b&gt;\n\n&lt;color=#ffcc00&gt;&lt;b&gt;Броня:&lt;/b&gt; Ferro-Fibrous\n&lt;b&gt;Структура:&lt;/b&gt; Structure\n&lt;b&gt;Знач-я Б С &lt;/b&gt;\n&lt;b&gt;Перед&lt;/b&gt; 235 40\n&lt;b&gt;Лево&lt;/b&gt; 190 40\n&lt;b&gt;Право&lt;/b&gt; 190 40\n&lt;b&gt;Зад&lt;/b&gt; 150 40\n&lt;b&gt;Турель&lt;/b&gt; 235 40\n&lt;b&gt;Итого&lt;/b&gt; 1000 200&lt;/color&gt;\n\n&lt;color=#ff0000&gt;Особенность: Точное оружие - AC&lt;/color&gt;"</t>
-  </si>
-  <si>
-    <t>"A former LCAF Tank Driver, James Erskine came to Solaris with a mountain of debt and a mostly intact Drillson MBT. Since then he and his Tank have become a familiar presence on the amateur circuits and it won't be long before he breaks into the bigger leagues. A 215 rated XL Engine -apparently a custom made model - provides room for a Supercharger and an ER Large Laser along with additional armour plating.\n\n&lt;b&gt;&lt;color=#ffcc00&gt;Термоядерный: дорогой двигатель, работающий в вакууме.&lt;/color&gt;&lt;/b&gt;\n\n&lt;b&gt;&lt;color=#ffcc00&gt;Передвижение: 9/14 Hex: 270/420 Meters.&lt;/color&gt;&lt;/b&gt;\n\n&lt;color=#ffcc00&gt;&lt;b&gt;Броня:&lt;/b&gt; Броня\n&lt;b&gt;Структура:&lt;/b&gt; Структура\n&lt;b&gt;Знач-я Б С &lt;/b&gt;\n&lt;b&gt;Перед&lt;/b&gt; 150 25\n&lt;b&gt;Лево&lt;/b&gt; 120 25\n&lt;b&gt;Право&lt;/b&gt; 120 25\n&lt;b&gt;Зад&lt;/b&gt; 105 25\n&lt;b&gt;Турель&lt;/b&gt; 150 25\n&lt;b&gt;Итого&lt;/b&gt; 645 125&lt;/color&gt;\n\n&lt;color=#ff0000&gt;Особенность: Точное оружие - Laser&lt;/color&gt;"</t>
-  </si>
-  <si>
-    <t>"Despite appearances Fayza Mir is not actually a Tank Jockey, instead she's rumoured to be corporate test pilot for Brooks Incorporated. Her Galleon is certainly heavily customised and chock full of unusual modifications. The most unusual of these is a 210 rated XL Engine; apparently acquired from VEST. Paired with this is a Supercharger, capable of pushing the Galleon up to nearly 150kph. Protection is improved with an extra ton of armour plating and the entire tank has been reskinned in Ferro Fibrous plating. A Guardian ECM Suite rounds out the protection while the tanks weapons consist of a Large Laser and 2 Medium Lasers.\n\n&lt;b&gt;&lt;color=#ffcc00&gt;Термоядерный: дорогой двигатель, работающий в вакууме.&lt;/color&gt;&lt;/b&gt;\n\n&lt;b&gt;&lt;color=#ffcc00&gt;Передвижение: 7/11 Hex: 210/330 Meters.&lt;/color&gt;&lt;/b&gt;\n\n&lt;color=#ffcc00&gt;&lt;b&gt;Броня:&lt;/b&gt; Ferro-Fibrous\n&lt;b&gt;Структура:&lt;/b&gt; Structure\n&lt;b&gt;Знач-я Б С &lt;/b&gt;\n&lt;b&gt;Перед&lt;/b&gt; 100 15\n&lt;b&gt;Лево&lt;/b&gt; 85 15\n&lt;b&gt;Право&lt;/b&gt; 85 15\n&lt;b&gt;Зад&lt;/b&gt; 80 15\n&lt;b&gt;Турель&lt;/b&gt; 100 15\n&lt;b&gt;Итого&lt;/b&gt; 450 75&lt;/color&gt;\n\n&lt;color=#ff0000&gt;Особенность: Защищенные механизмы&lt;/color&gt;"</t>
-  </si>
-  <si>
-    <t>"Once a bounty hunter and occasional assassin, Alexander Vlasik has largely retired minus his occasional matches in the mid weight circuits. His Goblin is a feared and respected sight, not least because the bulk of it was assembled from salvage taken from his bounties. The original Goblin chassis came from a pirate band; the XL Engine, AMS and CASE came from a downed PXH-3M and the ER PPC was pulled from the wreckage of a MAD-5D. The only thing not salvaged was the Goblins supercharger which came from a local tech shop. The mishmash of upgrades combine to make the Goblin a fast and mobile sniper with a nasty reputation.\n\n&lt;b&gt;&lt;color=#ffcc00&gt;Термоядерный: дорогой двигатель, работающий в вакууме.&lt;/color&gt;&lt;/b&gt;\n\n&lt;b&gt;&lt;color=#ffcc00&gt;Передвижение: 6/9 Hex: 180/270 Meters.&lt;/color&gt;&lt;/b&gt;\n\n&lt;color=#ffcc00&gt;&lt;b&gt;Броня:&lt;/b&gt; Броня\n&lt;b&gt;Структура:&lt;/b&gt; Структура\n&lt;b&gt;Знач-я Б С &lt;/b&gt;\n&lt;b&gt;Перед&lt;/b&gt; 160 25\n&lt;b&gt;Лево&lt;/b&gt; 130 25\n&lt;b&gt;Право&lt;/b&gt; 130 25\n&lt;b&gt;Зад&lt;/b&gt; 115 25\n&lt;b&gt;Турель&lt;/b&gt; 160 25\n&lt;b&gt;Итого&lt;/b&gt; 695 125&lt;/color&gt;\n\n&lt;color=#ff0000&gt;Особенность: Разнодальнее наведение&lt;/color&gt;"</t>
-  </si>
-  <si>
-    <t>"Possibly insane and certainly eccentric, Johana Nyemba is the highest profile Hetzer Jockey on Solaris. Usually appearing in the mixed Leagues, this is her first appearance fighting solo. Built for one hit kills, her Hetzer features a Gauss Rifle in place of the traditional Autocannon. A custom made Fuel Cell pushes the Hetzer to speeds in excess of 80 kph and provides the space for the massive Gauss Rifle and it's ammo. A Guardian ECM unit helps the Hetzer to reposition between shots and provides some protection at range.\n\n&lt;b&gt;&lt;color=#ffcc00&gt;Топливная ячейка: улучшенный двигатель, работающий в вакууме.&lt;/color&gt;&lt;/b&gt;\n\n&lt;b&gt;&lt;color=#ffcc00&gt;Передвижение: 5/8 Hex: 150/240 Meters.&lt;/color&gt;&lt;/b&gt;\n\n&lt;color=#ffcc00&gt;&lt;b&gt;Броня:&lt;/b&gt; Броня\n&lt;b&gt;Структура:&lt;/b&gt; Структура\n&lt;b&gt;Знач-я Б С &lt;/b&gt;\n&lt;b&gt;Перед&lt;/b&gt; 170 20\n&lt;b&gt;Лево&lt;/b&gt; 130 20\n&lt;b&gt;Право&lt;/b&gt; 130 20\n&lt;b&gt;Зад&lt;/b&gt; 130 20\n&lt;b&gt;Итого&lt;/b&gt; 560 80&lt;/color&gt;\n\n&lt;color=#ff0000&gt;Особенность: Узкий/низкий профиль&lt;/color&gt;"</t>
-  </si>
-  <si>
-    <t>"Not much is known about Frantz Moore but one thing is for certain; he has serious connections. Experimental DCMS tech doesn't just fall off any old dropship after all. Somewhat unusually for a Hunter driver, he favours close combat and has equipped his Hunter with a supercharger and an MRM-30 with 3 tons of ammo. An XL Engine allows the addition of 2 tons of armour; making for a potent ambusher.\n\n&lt;b&gt;&lt;color=#ffcc00&gt;Термоядерный: дорогой двигатель, работающий в вакууме.&lt;/color&gt;&lt;/b&gt;\n\n&lt;b&gt;&lt;color=#ffcc00&gt;Передвижение: 5/8 Hex: 150/240 Meters.&lt;/color&gt;&lt;/b&gt;\n\n&lt;color=#ffcc00&gt;&lt;b&gt;Броня:&lt;/b&gt; Броня\n&lt;b&gt;Структура:&lt;/b&gt; Структура\n&lt;b&gt;Знач-я Б С &lt;/b&gt;\n&lt;b&gt;Перед&lt;/b&gt; 260 20\n&lt;b&gt;Лево&lt;/b&gt; 160 20\n&lt;b&gt;Право&lt;/b&gt; 160 20\n&lt;b&gt;Зад&lt;/b&gt; 100 20\n&lt;b&gt;Итого&lt;/b&gt; 680 80&lt;/color&gt;\n\n&lt;color=#ff0000&gt;Особенность: Точное оружие - Missiles&lt;/color&gt;"</t>
-  </si>
-  <si>
-    <t>"Mysterious and uncertain pasts are par for the course on Solaris, but Cait's is stranger then most. Most stories claims she defected from a Clan or was captured in combat. Whatever the case, she is an unusual contender on the arena circuits with a customized J. Edgar believed to date from the first Star League. Fully upgraded with ClanTech, the J. Edgar uses a combination of an XL Engine and Ferro Fibrous to free up the weight needed to upgrade the SRM-2's to Clan Streak 4's. The Medium Laser is swapped for a Clan ER model and the armour protection is improved by a ton.\n\n&lt;b&gt;&lt;color=#ffcc00&gt;Термоядерный: дорогой двигатель, работающий в вакууме.&lt;/color&gt;&lt;/b&gt;\n\n&lt;b&gt;&lt;color=#ffcc00&gt;Передвижение: 11/17 Hex: 330/510 Meters.&lt;/color&gt;&lt;/b&gt;\n\n&lt;color=#ffcc00&gt;&lt;b&gt;Броня:&lt;/b&gt; Ferro-Fibrous (C)\n&lt;b&gt;Структура:&lt;/b&gt; Structure\n&lt;b&gt;Знач-я Б С &lt;/b&gt;\n&lt;b&gt;Перед&lt;/b&gt; 160 15\n&lt;b&gt;Лево&lt;/b&gt; 110 15\n&lt;b&gt;Право&lt;/b&gt; 110 15\n&lt;b&gt;Зад&lt;/b&gt; 80 15\n&lt;b&gt;Турель&lt;/b&gt; 140 15\n&lt;b&gt;Итого&lt;/b&gt; 600 75&lt;/color&gt;\n\n&lt;color=#ff0000&gt;Особенность: Точное оружие - Laser&lt;/color&gt;"</t>
-  </si>
-  <si>
-    <t>"Kyle MacGlashan is very coy about the origins of his Kanga, a tank which is theoretically extinct. That doesn't stop the museum piece from being any less dangerous with 8 wins already racked up this year. Outfitted for CQC, Kyle's Kanga is significantly modified compared to the original model. A swap to a Fuel Cell enables the main gun to be upgraded for an LB-10X model. Likewise the missile racks are swapped for a pair of Streak SRM-2's and a Small Laser takes the place of the Machine Gun.\n\n&lt;b&gt;&lt;color=#ffcc00&gt;Топливная ячейка: улучшенный двигатель, работающий в вакууме.&lt;/color&gt;&lt;/b&gt;\n\n&lt;b&gt;&lt;color=#ffcc00&gt;Передвижение: 8/12 Hex: 240/360 Meters.&lt;/color&gt;&lt;/b&gt;\n\n&lt;color=#ffcc00&gt;&lt;b&gt;Броня:&lt;/b&gt; Броня\n&lt;b&gt;Структура:&lt;/b&gt; Структура\n&lt;b&gt;Знач-я Б С &lt;/b&gt;\n&lt;b&gt;Перед&lt;/b&gt; 150 25\n&lt;b&gt;Лево&lt;/b&gt; 110 25\n&lt;b&gt;Право&lt;/b&gt; 110 25\n&lt;b&gt;Зад&lt;/b&gt; 110 25\n&lt;b&gt;Итого&lt;/b&gt; 480 100&lt;/color&gt;\n\n&lt;color=#ff0000&gt;Особенность: Защищенные механизмы&lt;/color&gt;"</t>
-  </si>
-  <si>
-    <t>"A former pro racer Elfi Melsom has taken to high speed duelling with a dramatic flair. Working with an unknown patron, Elfi has recently adjured a small fortune in ClanTech. Her Lightning is an original spec model of uncertain provenance with extensive modifications. The most dramatic of which are the XL Engine recently claimed as salvage in a duel with a Nighthawk NTK-2Q. The free weight from this allowed Elfi to double her rides protection with 7.5 tons of Ferro Fibrous compared to the original 3.5. The cache of ClanTech has come in handy with a Targeting Computer augmenting the Medium Pulse Lasers and Streak SRM-4's replacing the one shot launchers.\n\n&lt;b&gt;&lt;color=#ffcc00&gt;Термоядерный: дорогой двигатель, работающий в вакууме.&lt;/color&gt;&lt;/b&gt;\n\n&lt;b&gt;&lt;color=#ffcc00&gt;Передвижение: 11/17 Hex: 330/510 Meters.&lt;/color&gt;&lt;/b&gt;\n\n&lt;color=#ffcc00&gt;&lt;b&gt;Броня:&lt;/b&gt; Ferro-Fibrous\n&lt;b&gt;Структура:&lt;/b&gt; Structure\n&lt;b&gt;Знач-я Б С &lt;/b&gt;\n&lt;b&gt;Перед&lt;/b&gt; 200 20\n&lt;b&gt;Лево&lt;/b&gt; 170 20\n&lt;b&gt;Право&lt;/b&gt; 170 20\n&lt;b&gt;Зад&lt;/b&gt; 150 20\n&lt;b&gt;Итого&lt;/b&gt; 690 80&lt;/color&gt;\n\n&lt;color=#ff0000&gt;Особенность: Узкий/низкий профиль&lt;/color&gt;"</t>
-  </si>
-  <si>
-    <t>"The vehicle simply known as the 'Hover Tank' was originally developed by Lucas Technologies as a bid to gain a military contract for the Terran Hegemony's Armed forces. After years of development and proposals, the result their efforts would be the LTV-4 Hover Tank in 2464. The LTV series was the response as part of an effort to counter proliferation of BattleMech technologies stolen from the Hegemony. The vehicle was designed to swarm these early BattleMechs in groups and use their combined firepower to hold them until other forces could close and eliminate them.\r\n\r\n&lt;b&gt;&lt;color=#ffcc00&gt;Термоядерный: дорогой двигатель, работающий в вакууме.&lt;/color&gt;&lt;/b&gt;\r\n\r\n&lt;b&gt;&lt;color=#ffcc00&gt;Передвижение: 7/11 Hex: 210/330 Meters.&lt;/color&gt;&lt;/b&gt;\r\n\r\n&lt;color=#ffcc00&gt;&lt;b&gt;Броня:&lt;/b&gt; Броня\n&lt;b&gt;Структура:&lt;/b&gt; Структура\n&lt;b&gt;Значения Б С &lt;/b&gt;\n&lt;b&gt;Перед&lt;/b&gt; 150 25\n&lt;b&gt;Лево&lt;/b&gt; 120 25\n&lt;b&gt;Право&lt;/b&gt; 120 25\n&lt;b&gt;Зад&lt;/b&gt; 100 25\n&lt;b&gt;Турель&lt;/b&gt; 100 25\r\n\r\n&lt;b&gt;Итого&lt;/b&gt; 590 125&lt;/color&gt;\r\n\r\n&lt;color=#ff0000&gt;Особенность: Улучшенное наведение - Short&lt;/color&gt;"</t>
-  </si>
-  <si>
-    <t>"The Marsden II Main Battle Tank was introduced by Arcturan Arms in 2463 to replace its venerable predecessor after seventy years of frontline service. Improved technical and manufacturing knowledge allowed the company to improve the new tank's arms and armor while still making it five tons lighter. With its excellent firepower and thick armor, it was considered a cutting edge combat vehicle when it premiered during the Age of War. The durable Marsden II continued to soldier on in various planetary militias and private security force arsenals into the Succession Wars.\r\n\r\n&lt;b&gt;&lt;color=#ffcc00&gt;Термоядерный: дорогой двигатель, работающий в вакууме.&lt;/color&gt;&lt;/b&gt;\r\n\r\n&lt;b&gt;&lt;color=#ffcc00&gt;Передвижение: 4/6 Hex: 120/180 Meters.&lt;/color&gt;&lt;/b&gt;\r\n\r\n&lt;color=#ffcc00&gt;&lt;b&gt;Броня:&lt;/b&gt; Броня\n&lt;b&gt;Структура:&lt;/b&gt; Структура\n&lt;b&gt;Значения Б С &lt;/b&gt;\n&lt;b&gt;Перед&lt;/b&gt; 270 30\n&lt;b&gt;Лево&lt;/b&gt; 260 30\n&lt;b&gt;Право&lt;/b&gt; 260 30\n&lt;b&gt;Зад&lt;/b&gt; 205 30\n&lt;b&gt;Турель&lt;/b&gt; 255 30\r\n\r\n&lt;b&gt;Итого&lt;/b&gt; 1250 150&lt;/color&gt;\r\n\r\n&lt;color=#ff0000&gt;Особенность: Основной боевой танк&lt;/color&gt;"</t>
-  </si>
-  <si>
-    <t>"A native of Solaris, Natalie Curwen was at one point a rising star in the planetary militia until her career was cut short amid unproven rumours of corruption and selling classified intelligence. Since being booted out, she has slowly worked her way through the various minor leagues while dealing in information and - allegedly - black market weapons. Driving a customised Palisade MBT acquired during her militia service, Curwen has some how secured a Clan LRM-20 augmented with Artemis IV and steady supply of ammo to go with it. Installed on her tank in place of the original LRM-15; the free weight created has been used to upgrade the Machine Gun to an AMS and add CASE to the magazines. Ferro Fibrous was used to improve the Tanks armour, particularly on the weaker flank and rear armour.\n\n&lt;b&gt;&lt;color=#ffcc00&gt;Топливная ячейка: улучшенный двигатель, работающий в вакууме.&lt;/color&gt;&lt;/b&gt;\n\n&lt;b&gt;&lt;color=#ffcc00&gt;Передвижение: 4/6 Hex: 120/180 Meters.&lt;/color&gt;&lt;/b&gt;\n\n&lt;color=#ffcc00&gt;&lt;b&gt;Броня:&lt;/b&gt; Ferro-Fibrous\n&lt;b&gt;Структура:&lt;/b&gt; Structure\n&lt;b&gt;Знач-я Б С &lt;/b&gt;\n&lt;b&gt;Перед&lt;/b&gt; 270 30\n&lt;b&gt;Лево&lt;/b&gt; 210 30\n&lt;b&gt;Право&lt;/b&gt; 210 30\n&lt;b&gt;Зад&lt;/b&gt; 200 30\n&lt;b&gt;Турель&lt;/b&gt; 210 30\n&lt;b&gt;Итого&lt;/b&gt; 1100 150&lt;/color&gt;\n\n&lt;color=#ff0000&gt;Особенность: Основной боевой танк&lt;/color&gt;"</t>
-  </si>
-  <si>
-    <t>"Not a common site in the arenas; the Partisan is slow, undergunned and poorly armoured. The Partisan piloted by Ka-Lai Guo is not. Armed with paired AC/5's and Clan made UAC/5's - the accuracy of which is ensured by a massive Clan Targeting Computer - Ka-Lai's Partisan can shred most foes before they get close. Mixing the weapons systems minimises the risk of a crippling jam knocking all the weapons out and allows for non standard ammo to be loaded in the AC/5's. A Fuel Cell is used to boost the Tanks armour to more survivable levels.\n\n&lt;b&gt;&lt;color=#ffcc00&gt;Топливная ячейка: улучшенный двигатель, работающий в вакууме.&lt;/color&gt;&lt;/b&gt;\n\n&lt;b&gt;&lt;color=#ffcc00&gt;Передвижение: 3/5 Hex: 90/150 Meters.&lt;/color&gt;&lt;/b&gt;\n\n&lt;color=#ffcc00&gt;&lt;b&gt;Броня:&lt;/b&gt; Heavy Ferro-Fibrous\n&lt;b&gt;Структура:&lt;/b&gt; Structure\n&lt;b&gt;Знач-я Б С &lt;/b&gt;\n&lt;b&gt;Перед&lt;/b&gt; 160 40\n&lt;b&gt;Лево&lt;/b&gt; 140 40\n&lt;b&gt;Право&lt;/b&gt; 140 40\n&lt;b&gt;Зад&lt;/b&gt; 120 40\n&lt;b&gt;Турель&lt;/b&gt; 160 40\n&lt;b&gt;Итого&lt;/b&gt; 720 200&lt;/color&gt;\n\n&lt;color=#ff0000&gt;Особенность: Противовоздушное наведение&lt;/color&gt;"</t>
-  </si>
-  <si>
-    <t>"The Pike was created at the direction of Magestrix Kyalla Centrella of the Magistracy of Canopus during the later part of the Third Succession War. Her plan was to produce an inexpensive combat vehicle so the Great Houses would wear down their BattleMech armies through attrition, and the Pike would be the tool she envisioned for the task. However, sending vehicles to market in the Inner Sphere was to be more costly than anticipated. With the Great Houses' shrinking numbers of ships in their JumpShip fleets, the vehicle did not make the impact she had hoped it would. It became a favorite of ComStar's growing garrison forces for their HPG complexes.\r\n\r\n&lt;b&gt;&lt;color=#ffcc00&gt;Топливная ячейка: улучшенный двигатель, работающий в вакууме.&lt;/color&gt;&lt;/b&gt;\r\n\r\n&lt;b&gt;&lt;color=#ffcc00&gt;Передвижение: 3/5 Hex: 90/150 Meters.&lt;/color&gt;&lt;/b&gt;\r\n\r\n&lt;color=#ffcc00&gt;&lt;b&gt;Броня:&lt;/b&gt; Ferro-Fibrous\n&lt;b&gt;Структура:&lt;/b&gt; Structure\n&lt;b&gt;Значения Б С &lt;/b&gt;\n&lt;b&gt;Перед&lt;/b&gt; 210 30\n&lt;b&gt;Лево&lt;/b&gt; 190 30\n&lt;b&gt;Право&lt;/b&gt; 190 30\n&lt;b&gt;Зад&lt;/b&gt; 170 30\n&lt;b&gt;Турель&lt;/b&gt; 210 30\r\n\r\n&lt;b&gt;Итого&lt;/b&gt; 970 150&lt;/color&gt;\r\n\r\n&lt;color=#ff0000&gt;Особенность: Точное оружие - Missiles&lt;/color&gt;"</t>
-  </si>
-  <si>
-    <t>"Быстрый и универсальный, легкий танк мало приспособлен для прямого боя, но имеет целый ряд других возможностей. Предназначенный в качестве разведчика, легкий танк постоянно находится в движении, прощупывая путь для остальных войск.\n\n&lt;b&gt;&lt;color=#ffcc00&gt;Топливная ячейка: улучшенный двигатель, работающий в вакууме.&lt;/color&gt;&lt;/b&gt;\n\n&lt;b&gt;&lt;color=#ffcc00&gt;Передвижение: 9/14 Hex: 270/420 Meters.&lt;/color&gt;&lt;/b&gt;\n\n&lt;color=#ffcc00&gt;&lt;b&gt;Броня:&lt;/b&gt; Ferro-Fibrous\n&lt;b&gt;Структура:&lt;/b&gt; Structure\n&lt;b&gt;Знач-я Б С &lt;/b&gt;\n&lt;b&gt;Перед&lt;/b&gt; 120 20\n&lt;b&gt;Лево&lt;/b&gt; 90 20\n&lt;b&gt;Право&lt;/b&gt; 90 20\n&lt;b&gt;Зад&lt;/b&gt; 80 20\n&lt;b&gt;Турель&lt;/b&gt; 120 20\n&lt;b&gt;Итого&lt;/b&gt; 500 100&lt;/color&gt;\n\n&lt;color=#ff0000&gt;Особенность: Точное оружие - Missiles&lt;/color&gt;"</t>
-  </si>
-  <si>
-    <t>"While often derided as a poor man's Rommel/Patton tank, the simply constructed and dependable Po Heavy Tank, named by Romano Liao for the mischievous and vengeful spirit of Chinese tradition, has become the principal combat vehicle on Capellan worlds lacking 'Mech units. Introduced in 3031, the Po is built around the rugged, dependable, and cheap Ceres 240 internal combustion engine, which gives the tank a maximum flank speed of 65 kph. Ten and half tons of armor provides respectable protection for a heavy tank. Along with its ease of maintenance and decent firepower, this protection has made the Po a popular choice among cash strapped mercenaries, lower ranked garrison units, the Free Worlds League and Word of Blake, with such export sales keeping much needed funds flowing into the Confederation's coffers.\r\n\r\n&lt;b&gt;&lt;color=#ffcc00&gt;Термоядерный: дорогой двигатель, работающий в вакууме.&lt;/color&gt;&lt;/b&gt;\r\n\r\n&lt;b&gt;&lt;color=#ffcc00&gt;Передвижение: 4/6 Hex: 120/180 Meters.&lt;/color&gt;&lt;/b&gt;\r\n\r\n&lt;color=#ffcc00&gt;&lt;b&gt;Броня:&lt;/b&gt; Броня\n&lt;b&gt;Структура:&lt;/b&gt; Структура\n&lt;b&gt;Значения Б С &lt;/b&gt;\n&lt;b&gt;Перед&lt;/b&gt; 200 30\n&lt;b&gt;Лево&lt;/b&gt; 180 30\n&lt;b&gt;Право&lt;/b&gt; 180 30\n&lt;b&gt;Зад&lt;/b&gt; 160 30\n&lt;b&gt;Турель&lt;/b&gt; 200 30\r\n\r\n&lt;b&gt;Итого&lt;/b&gt; 920 150&lt;/color&gt;\r\n\r\n&lt;color=#ff0000&gt;Особенность: Основной боевой танк&lt;/color&gt;"</t>
-  </si>
-  <si>
-    <t>"Not many people can say they won a tank in a legal dispute, but Rafael Lopez managed to. Caught up in a business dispute with some partners, the engineer found himself stuck with a Puma assault tank he didn't need or want. Initially entering the minor leagues as a hobby, he eventually switched professions and now drives his customised Puma fulltime. Lightly modified compared to some tanks, his Puma has had the standard 285 Fusion Engine upgraded to an XL model. With the newly free weight, the PPC has been upgraded to an ER model and the SRM and LRM launchers augmented with Artemis IV. A light covering of Ferro Fibrous plating improves the Tanks armour.\n\n&lt;b&gt;&lt;color=#ffcc00&gt;Термоядерный: дорогой двигатель, работающий в вакууме.&lt;/color&gt;&lt;/b&gt;\n\n&lt;b&gt;&lt;color=#ffcc00&gt;Передвижение: 3/5 Hex: 90/150 Meters.&lt;/color&gt;&lt;/b&gt;\n\n&lt;color=#ffcc00&gt;&lt;b&gt;Броня:&lt;/b&gt; Ferro-Fibrous\n&lt;b&gt;Структура:&lt;/b&gt; Structure\n&lt;b&gt;Знач-я Б С &lt;/b&gt;\n&lt;b&gt;Перед&lt;/b&gt; 280 50\n&lt;b&gt;Лево&lt;/b&gt; 200 50\n&lt;b&gt;Право&lt;/b&gt; 200 50\n&lt;b&gt;Зад&lt;/b&gt; 140 50\n&lt;b&gt;Турель&lt;/b&gt; 280 50\n&lt;b&gt;Итого&lt;/b&gt; 1100 250&lt;/color&gt;\n\n&lt;color=#ff0000&gt;Особенность: Основной боевой танк&lt;/color&gt;"</t>
-  </si>
-  <si>
-    <t>"Traditionally used as a fire support vehicle and kept far back from the action, the Rhino is usually a slow and fairly defenceless tank at close range. Aaron McMinn's is not. The former LCAF Tank commander spared no expense in the outfighting of his. The standard 240 rated Fusion Engine has been ripped out and replaced by a massive 320 rated XL Engine. A Supercharger further augments the Rhinos speed; with a top speed of over 80 kph, the Rhino can often outrun lighter opponents. Close in defences have been augmented with a pair of Medium Pulse Lasers and the LRM's exchanged for Clan equivalents with Artemis IV systems installed. Lastly, the Rhino is replated in Ferro Fibrous, considerably improving the vehicles armour.\r\n\r\n&lt;b&gt;&lt;color=#ffcc00&gt;Термоядерный: дорогой двигатель, работающий в вакууме.&lt;/color&gt;&lt;/b&gt;\r\n\r\n&lt;b&gt;&lt;color=#ffcc00&gt;Передвижение: 4/6 Hex: 120/180 Meters.&lt;/color&gt;&lt;/b&gt;\r\n\r\n&lt;color=#ffcc00&gt;&lt;b&gt;Броня:&lt;/b&gt; Ferro-Fibrous\n&lt;b&gt;Структура:&lt;/b&gt; Structure\n&lt;b&gt;Значения Б С &lt;/b&gt;\n&lt;b&gt;Перед&lt;/b&gt; 350 40\n&lt;b&gt;Лево&lt;/b&gt; 290 40\n&lt;b&gt;Право&lt;/b&gt; 290 40\n&lt;b&gt;Зад&lt;/b&gt; 225 40\n&lt;b&gt;Турель&lt;/b&gt; 310 40\r\n\r\n&lt;b&gt;Итого&lt;/b&gt; 1465 200&lt;/color&gt;\r\n\r\n&lt;color=#ff0000&gt;Особенность: Улучшенное наведение - Long&lt;/color&gt;"</t>
-  </si>
-  <si>
-    <t>"The Rommel tank is a 65-ton armored combat vehicle, specializing in close range fighting and urban combat. Identical to its twin, the Patton, in every way but armament and armor configuration, the Rommel has primarily served with the Lyran Commonwealth and the Lyran Alliance. It is named after Field Marshal Erwin Rommel, a legendary commander of armored and mechanized forces renowned for his exploits during World War II on Terra. The Rommel was designed concurrently with the Patton in the early 3000s, when Defiance Industries decided that an armored combat vehicle capable of replacing 'Mechs was needed. Since 'Mech production was nearly at a standstill, the ability to produce and field armored vehicles became a necessity for every Successor State.\r\n\r\n&lt;b&gt;&lt;color=#ffcc00&gt;Топливная ячейка: улучшенный двигатель, работающий в вакууме.&lt;/color&gt;&lt;/b&gt;\r\n\r\n&lt;b&gt;&lt;color=#ffcc00&gt;Передвижение: 4/6 Hex: 120/180 Meters.&lt;/color&gt;&lt;/b&gt;\r\n\r\n&lt;color=#ffcc00&gt;&lt;b&gt;Броня:&lt;/b&gt; Ferro-Fibrous\n&lt;b&gt;Структура:&lt;/b&gt; Structure\n&lt;b&gt;Значения Б С &lt;/b&gt;\n&lt;b&gt;Перед&lt;/b&gt; 220 35\n&lt;b&gt;Лево&lt;/b&gt; 200 35\n&lt;b&gt;Право&lt;/b&gt; 200 35\n&lt;b&gt;Зад&lt;/b&gt; 150 35\n&lt;b&gt;Турель&lt;/b&gt; 220 35\r\n\r\n&lt;b&gt;Итого&lt;/b&gt; 990 175&lt;/color&gt;\r\n\r\n&lt;color=#ff0000&gt;Особенность: Основной боевой танк&lt;/color&gt;"</t>
-  </si>
-  <si>
-    <t>"Sporting an unusual main weapon, Bernd Skorstad's Saladin Hover Tank also sports a custom built 105 rated Fusion Engine instead of the typical ICE engine. The reason for this minor novelty is the Binary Laser mounted in place of the standard Autocannon. Originating in a DCMS refit program long since abandoned and forgotten, Skorstad's Saladin hits almost as hard as a standard model and at nearly twice the range to boot. Installed recently, Ferro Fibrous plating improves armour protection; essential for the sort of matches Skorstad finds himself in.\n\n&lt;b&gt;&lt;color=#ffcc00&gt;Термоядерный: дорогой двигатель, работающий в вакууме.&lt;/color&gt;&lt;/b&gt;\n\n&lt;b&gt;&lt;color=#ffcc00&gt;Передвижение: 9/14 Hex: 270/420 Meters.&lt;/color&gt;&lt;/b&gt;\n\n&lt;color=#ffcc00&gt;&lt;b&gt;Броня:&lt;/b&gt; Ferro-Fibrous\n&lt;b&gt;Структура:&lt;/b&gt; Structure\n&lt;b&gt;Знач-я Б С &lt;/b&gt;\n&lt;b&gt;Перед&lt;/b&gt; 100 20\n&lt;b&gt;Лево&lt;/b&gt; 80 20\n&lt;b&gt;Право&lt;/b&gt; 80 20\n&lt;b&gt;Зад&lt;/b&gt; 75 20\n&lt;b&gt;Итого&lt;/b&gt; 335 80&lt;/color&gt;\n\n&lt;color=#ff0000&gt;Особенность: Прочный&lt;/color&gt;"</t>
-  </si>
-  <si>
-    <t>"Commanding the Scorpion Light Tank nicknamed Invincible, Olympia Capraru is on the 4th iteration of that name in 6 years; the previous models being lost in combat. This time around she publicly made a vow to not lose another Scorpion of that name and has contracted a smuggler making runs out of the Clan Occupation Zones to bring her stolen tech to augment the tank with. Currently aping the original SRM spec Scorpion, her Invincible has been extensively upgraded. The original SRM racks are long gone with a pair of Clan Streak SRM-6's installed in their place. The Machine Gun is swapped for an AMS. A Guardian ECM Suite rounds out the new loadout while a combination of a Fuel Cell and Ferro Fibrous bump the armour by a ton and allow CASE'd magazines for the ammo.\n\n&lt;b&gt;&lt;color=#ffcc00&gt;Топливная ячейка: улучшенный двигатель, работающий в вакууме.&lt;/color&gt;&lt;/b&gt;\n\n&lt;b&gt;&lt;color=#ffcc00&gt;Передвижение: 4/6 Hex: 120/180 Meters.&lt;/color&gt;&lt;/b&gt;\n\n&lt;color=#ffcc00&gt;&lt;b&gt;Броня:&lt;/b&gt; Ferro-Fibrous\n&lt;b&gt;Структура:&lt;/b&gt; Structure\n&lt;b&gt;Знач-я Б С &lt;/b&gt;\n&lt;b&gt;Перед&lt;/b&gt; 110 15\n&lt;b&gt;Лево&lt;/b&gt; 90 15\n&lt;b&gt;Право&lt;/b&gt; 90 15\n&lt;b&gt;Зад&lt;/b&gt; 70 15\n&lt;b&gt;Турель&lt;/b&gt; 100 15\n&lt;b&gt;Итого&lt;/b&gt; 460 75&lt;/color&gt;\n\n&lt;color=#ff0000&gt;Особенность: Защищенные механизмы&lt;/color&gt;"</t>
-  </si>
-  <si>
-    <t>"Having broken multiple league records for the number of successful rams done in a single match, it shouldn't be a surprise that Karen Hathaway's Sturmfeur has been customised with a supercharger. The standard ICE has been swapped for a lighter Fuel Cell, allowing the LRM-20's to be augmented with Artemis IV and Guardian ECM added to the tank.\n\n&lt;b&gt;&lt;color=#ffcc00&gt;Термоядерный: дорогой двигатель, работающий в вакууме.&lt;/color&gt;&lt;/b&gt;\n\n&lt;b&gt;&lt;color=#ffcc00&gt;Передвижение: 3/5 Hex: 90/150 Meters.&lt;/color&gt;&lt;/b&gt;\n\n&lt;color=#ffcc00&gt;&lt;b&gt;Броня:&lt;/b&gt; Броня\n&lt;b&gt;Структура:&lt;/b&gt; Структура\n&lt;b&gt;Знач-я Б С &lt;/b&gt;\n&lt;b&gt;Перед&lt;/b&gt; 360 45\n&lt;b&gt;Лево&lt;/b&gt; 330 45\n&lt;b&gt;Право&lt;/b&gt; 330 45\n&lt;b&gt;Зад&lt;/b&gt; 240 45\n&lt;b&gt;Турель&lt;/b&gt; 350 45\n&lt;b&gt;Итого&lt;/b&gt; 1610 225&lt;/color&gt;\n\n&lt;color=#ff0000&gt;Особенность: Точное оружие - Missiles&lt;/color&gt;"</t>
-  </si>
-  <si>
-    <t>"Iwao Kogawa is a former DCMS test pilot turned mercenary turned Solaris Jockey. His Vedette is all that remains of the abandoned program to outfight conventual units with Blazers. Needed to manage the power demands and waste heat of the Blazer, the Vedettes 250 rated ICE has been swapped for a Fusion Engine taken from a damaged Trebuchet. After market modifications made since Kogawa turned Merc include swapping the Machine Gun with an AMS and reskinning the Vedette in Ferro Fibrous.\n\n&lt;b&gt;&lt;color=#ffcc00&gt;Термоядерный: дорогой двигатель, работающий в вакууме.&lt;/color&gt;&lt;/b&gt;\n\n&lt;b&gt;&lt;color=#ffcc00&gt;Передвижение: 5/8 Hex: 150/240 Meters.&lt;/color&gt;&lt;/b&gt;\n\n&lt;color=#ffcc00&gt;&lt;b&gt;Броня:&lt;/b&gt; Ferro-Fibrous\n&lt;b&gt;Структура:&lt;/b&gt; Structure\n&lt;b&gt;Знач-я Б С &lt;/b&gt;\n&lt;b&gt;Перед&lt;/b&gt; 120 25\n&lt;b&gt;Лево&lt;/b&gt; 100 25\n&lt;b&gt;Право&lt;/b&gt; 100 25\n&lt;b&gt;Зад&lt;/b&gt; 120 25\n&lt;b&gt;Турель&lt;/b&gt; 120 25\n&lt;b&gt;Итого&lt;/b&gt; 560 125&lt;/color&gt;\n\n&lt;color=#ff0000&gt;Особенность: Быстрый уход с линии&lt;/color&gt;"</t>
-  </si>
-  <si>
-    <t>"In 3030, Aldis Industries deployed the successful follow up to its venerable Demolisher design, the slightly lighter Zhukov. While it shares many of the parts and features of the design that inspired it, the Zhukov is smaller, better armored, and packs less weaponry than its predecessor. Its first major deployment was with the Wolf's Dragoons whereupon the Zhukov has since seen constant improvements and tweaks as suggested to Aldis Industries by the field units that use it. The Zhukov's strength is its relative simplicity. Two turret mounted SarLon MaxiCannon Autocannon/10s are more than adequate at providing sufficient firepower for the discriminating buyer while imitating its larger cousin the Demolisher.\n\n&lt;b&gt;&lt;color=#ffcc00&gt;Топливная ячейка: улучшенный двигатель, работающий в вакууме.&lt;/color&gt;&lt;/b&gt;\n\n&lt;b&gt;&lt;color=#ffcc00&gt;Передвижение: 3/5 Hex: 90/150 Meters.&lt;/color&gt;&lt;/b&gt;\n\n&lt;color=#ffcc00&gt;&lt;b&gt;Броня:&lt;/b&gt; Ferro-Fibrous\n&lt;b&gt;Структура:&lt;/b&gt; Structure\n&lt;b&gt;Знач-я Б С &lt;/b&gt;\n&lt;b&gt;Перед&lt;/b&gt; 250 40\n&lt;b&gt;Лево&lt;/b&gt; 190 40\n&lt;b&gt;Право&lt;/b&gt; 190 40\n&lt;b&gt;Зад&lt;/b&gt; 150 40\n&lt;b&gt;Турель&lt;/b&gt; 250 40\n&lt;b&gt;Итого&lt;/b&gt; 1030 200&lt;/color&gt;\n\n&lt;color=#ff0000&gt;Особенность: Основной боевой танк&lt;/color&gt;"</t>
   </si>
 </sst>
 </file>
@@ -14211,16 +14211,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E3824"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3807" workbookViewId="0">
-      <selection activeCell="C3828" sqref="C3828"/>
+    <sheetView tabSelected="1" topLeftCell="A3808" workbookViewId="0">
+      <selection activeCell="C3827" sqref="C3827"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="66.140625" style="1" customWidth="1"/>
     <col min="2" max="3" width="80" style="1" customWidth="1"/>
-    <col min="4" max="10" width="9.140625" style="1" customWidth="1"/>
-    <col min="11" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="11" width="9.140625" style="1" customWidth="1"/>
+    <col min="12" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
@@ -77573,7 +77573,7 @@
         <v>4446</v>
       </c>
       <c r="C3727" s="1" t="s">
-        <v>4587</v>
+        <v>4447</v>
       </c>
       <c r="D3727" s="1">
         <v>3727</v>
@@ -77584,13 +77584,13 @@
     </row>
     <row r="3728" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3728" s="1" t="s">
-        <v>4447</v>
+        <v>4448</v>
       </c>
       <c r="B3728" s="1" t="s">
-        <v>4448</v>
+        <v>4449</v>
       </c>
       <c r="C3728" s="1" t="s">
-        <v>4449</v>
+        <v>4450</v>
       </c>
       <c r="D3728" s="1">
         <v>3728</v>
@@ -77601,13 +77601,13 @@
     </row>
     <row r="3729" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3729" s="1" t="s">
-        <v>4450</v>
+        <v>4451</v>
       </c>
       <c r="B3729" s="1" t="s">
-        <v>4451</v>
+        <v>4452</v>
       </c>
       <c r="C3729" s="1" t="s">
-        <v>4588</v>
+        <v>4453</v>
       </c>
       <c r="D3729" s="1">
         <v>3729</v>
@@ -77618,13 +77618,13 @@
     </row>
     <row r="3730" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3730" s="1" t="s">
-        <v>4452</v>
+        <v>4454</v>
       </c>
       <c r="B3730" s="1" t="s">
-        <v>4448</v>
+        <v>4449</v>
       </c>
       <c r="C3730" s="1" t="s">
-        <v>4449</v>
+        <v>4450</v>
       </c>
       <c r="D3730" s="1">
         <v>3730</v>
@@ -77635,13 +77635,13 @@
     </row>
     <row r="3731" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3731" s="1" t="s">
-        <v>4453</v>
+        <v>4455</v>
       </c>
       <c r="B3731" s="1" t="s">
-        <v>4454</v>
+        <v>4456</v>
       </c>
       <c r="C3731" s="1" t="s">
-        <v>4589</v>
+        <v>4457</v>
       </c>
       <c r="D3731" s="1">
         <v>3731</v>
@@ -77652,13 +77652,13 @@
     </row>
     <row r="3732" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3732" s="1" t="s">
-        <v>4455</v>
+        <v>4458</v>
       </c>
       <c r="B3732" s="1" t="s">
-        <v>4448</v>
+        <v>4449</v>
       </c>
       <c r="C3732" s="1" t="s">
-        <v>4449</v>
+        <v>4450</v>
       </c>
       <c r="D3732" s="1">
         <v>3732</v>
@@ -77669,13 +77669,13 @@
     </row>
     <row r="3733" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3733" s="1" t="s">
-        <v>4456</v>
+        <v>4459</v>
       </c>
       <c r="B3733" s="1" t="s">
-        <v>4457</v>
+        <v>4460</v>
       </c>
       <c r="C3733" s="1" t="s">
-        <v>4590</v>
+        <v>4461</v>
       </c>
       <c r="D3733" s="1">
         <v>3733</v>
@@ -77686,13 +77686,13 @@
     </row>
     <row r="3734" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3734" s="1" t="s">
-        <v>4458</v>
+        <v>4462</v>
       </c>
       <c r="B3734" s="1" t="s">
-        <v>4448</v>
+        <v>4449</v>
       </c>
       <c r="C3734" s="1" t="s">
-        <v>4449</v>
+        <v>4450</v>
       </c>
       <c r="D3734" s="1">
         <v>3734</v>
@@ -77703,13 +77703,13 @@
     </row>
     <row r="3735" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3735" s="1" t="s">
-        <v>4459</v>
+        <v>4463</v>
       </c>
       <c r="B3735" s="1" t="s">
-        <v>4460</v>
+        <v>4464</v>
       </c>
       <c r="C3735" s="1" t="s">
-        <v>4591</v>
+        <v>4465</v>
       </c>
       <c r="D3735" s="1">
         <v>3735</v>
@@ -77720,13 +77720,13 @@
     </row>
     <row r="3736" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3736" s="1" t="s">
-        <v>4461</v>
+        <v>4466</v>
       </c>
       <c r="B3736" s="1" t="s">
-        <v>4448</v>
+        <v>4449</v>
       </c>
       <c r="C3736" s="1" t="s">
-        <v>4449</v>
+        <v>4450</v>
       </c>
       <c r="D3736" s="1">
         <v>3736</v>
@@ -77737,13 +77737,13 @@
     </row>
     <row r="3737" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3737" s="1" t="s">
-        <v>4462</v>
+        <v>4467</v>
       </c>
       <c r="B3737" s="1" t="s">
-        <v>4463</v>
+        <v>4468</v>
       </c>
       <c r="C3737" s="1" t="s">
-        <v>4592</v>
+        <v>4469</v>
       </c>
       <c r="D3737" s="1">
         <v>3737</v>
@@ -77754,13 +77754,13 @@
     </row>
     <row r="3738" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3738" s="1" t="s">
-        <v>4464</v>
+        <v>4470</v>
       </c>
       <c r="B3738" s="1" t="s">
-        <v>4448</v>
+        <v>4449</v>
       </c>
       <c r="C3738" s="1" t="s">
-        <v>4449</v>
+        <v>4450</v>
       </c>
       <c r="D3738" s="1">
         <v>3738</v>
@@ -77771,13 +77771,13 @@
     </row>
     <row r="3739" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3739" s="1" t="s">
-        <v>4465</v>
+        <v>4471</v>
       </c>
       <c r="B3739" s="1" t="s">
-        <v>4466</v>
+        <v>4472</v>
       </c>
       <c r="C3739" s="1" t="s">
-        <v>4593</v>
+        <v>4473</v>
       </c>
       <c r="D3739" s="1">
         <v>3739</v>
@@ -77788,13 +77788,13 @@
     </row>
     <row r="3740" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3740" s="1" t="s">
-        <v>4467</v>
+        <v>4474</v>
       </c>
       <c r="B3740" s="1" t="s">
-        <v>4448</v>
+        <v>4449</v>
       </c>
       <c r="C3740" s="1" t="s">
-        <v>4449</v>
+        <v>4450</v>
       </c>
       <c r="D3740" s="1">
         <v>3740</v>
@@ -77805,13 +77805,13 @@
     </row>
     <row r="3741" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3741" s="1" t="s">
-        <v>4468</v>
+        <v>4475</v>
       </c>
       <c r="B3741" s="1" t="s">
-        <v>4469</v>
+        <v>4476</v>
       </c>
       <c r="C3741" s="1" t="s">
-        <v>4594</v>
+        <v>4477</v>
       </c>
       <c r="D3741" s="1">
         <v>3741</v>
@@ -77822,13 +77822,13 @@
     </row>
     <row r="3742" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3742" s="1" t="s">
-        <v>4470</v>
+        <v>4478</v>
       </c>
       <c r="B3742" s="1" t="s">
-        <v>4448</v>
+        <v>4449</v>
       </c>
       <c r="C3742" s="1" t="s">
-        <v>4449</v>
+        <v>4450</v>
       </c>
       <c r="D3742" s="1">
         <v>3742</v>
@@ -77839,13 +77839,13 @@
     </row>
     <row r="3743" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3743" s="1" t="s">
-        <v>4471</v>
+        <v>4479</v>
       </c>
       <c r="B3743" s="1" t="s">
-        <v>4472</v>
+        <v>4480</v>
       </c>
       <c r="C3743" s="1" t="s">
-        <v>4595</v>
+        <v>4481</v>
       </c>
       <c r="D3743" s="1">
         <v>3743</v>
@@ -77856,13 +77856,13 @@
     </row>
     <row r="3744" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3744" s="1" t="s">
-        <v>4473</v>
+        <v>4482</v>
       </c>
       <c r="B3744" s="1" t="s">
-        <v>4448</v>
+        <v>4449</v>
       </c>
       <c r="C3744" s="1" t="s">
-        <v>4449</v>
+        <v>4450</v>
       </c>
       <c r="D3744" s="1">
         <v>3744</v>
@@ -77873,13 +77873,13 @@
     </row>
     <row r="3745" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3745" s="1" t="s">
-        <v>4474</v>
+        <v>4483</v>
       </c>
       <c r="B3745" s="1" t="s">
-        <v>4475</v>
+        <v>4484</v>
       </c>
       <c r="C3745" s="1" t="s">
-        <v>4596</v>
+        <v>4485</v>
       </c>
       <c r="D3745" s="1">
         <v>3745</v>
@@ -77890,13 +77890,13 @@
     </row>
     <row r="3746" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3746" s="1" t="s">
-        <v>4476</v>
+        <v>4486</v>
       </c>
       <c r="B3746" s="1" t="s">
-        <v>4448</v>
+        <v>4449</v>
       </c>
       <c r="C3746" s="1" t="s">
-        <v>4449</v>
+        <v>4450</v>
       </c>
       <c r="D3746" s="1">
         <v>3746</v>
@@ -77907,13 +77907,13 @@
     </row>
     <row r="3747" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3747" s="1" t="s">
-        <v>4477</v>
+        <v>4487</v>
       </c>
       <c r="B3747" s="1" t="s">
-        <v>4478</v>
+        <v>4488</v>
       </c>
       <c r="C3747" s="1" t="s">
-        <v>4597</v>
+        <v>4489</v>
       </c>
       <c r="D3747" s="1">
         <v>3747</v>
@@ -77924,13 +77924,13 @@
     </row>
     <row r="3748" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3748" s="1" t="s">
-        <v>4479</v>
+        <v>4490</v>
       </c>
       <c r="B3748" s="1" t="s">
-        <v>4448</v>
+        <v>4449</v>
       </c>
       <c r="C3748" s="1" t="s">
-        <v>4449</v>
+        <v>4450</v>
       </c>
       <c r="D3748" s="1">
         <v>3748</v>
@@ -77941,13 +77941,13 @@
     </row>
     <row r="3749" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3749" s="1" t="s">
-        <v>4480</v>
+        <v>4491</v>
       </c>
       <c r="B3749" s="1" t="s">
-        <v>4481</v>
+        <v>4492</v>
       </c>
       <c r="C3749" s="1" t="s">
-        <v>4598</v>
+        <v>4493</v>
       </c>
       <c r="D3749" s="1">
         <v>3749</v>
@@ -77958,13 +77958,13 @@
     </row>
     <row r="3750" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3750" s="1" t="s">
-        <v>4482</v>
+        <v>4494</v>
       </c>
       <c r="B3750" s="1" t="s">
-        <v>4448</v>
+        <v>4449</v>
       </c>
       <c r="C3750" s="1" t="s">
-        <v>4449</v>
+        <v>4450</v>
       </c>
       <c r="D3750" s="1">
         <v>3750</v>
@@ -77975,13 +77975,13 @@
     </row>
     <row r="3751" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3751" s="1" t="s">
-        <v>4483</v>
+        <v>4495</v>
       </c>
       <c r="B3751" s="1" t="s">
-        <v>4484</v>
+        <v>4496</v>
       </c>
       <c r="C3751" s="1" t="s">
-        <v>4599</v>
+        <v>4497</v>
       </c>
       <c r="D3751" s="1">
         <v>3751</v>
@@ -77992,13 +77992,13 @@
     </row>
     <row r="3752" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3752" s="1" t="s">
-        <v>4485</v>
+        <v>4498</v>
       </c>
       <c r="B3752" s="1" t="s">
-        <v>4448</v>
+        <v>4449</v>
       </c>
       <c r="C3752" s="1" t="s">
-        <v>4449</v>
+        <v>4450</v>
       </c>
       <c r="D3752" s="1">
         <v>3752</v>
@@ -78009,13 +78009,13 @@
     </row>
     <row r="3753" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3753" s="1" t="s">
-        <v>4486</v>
+        <v>4499</v>
       </c>
       <c r="B3753" s="1" t="s">
-        <v>4487</v>
+        <v>4500</v>
       </c>
       <c r="C3753" s="1" t="s">
-        <v>4600</v>
+        <v>4501</v>
       </c>
       <c r="D3753" s="1">
         <v>3753</v>
@@ -78026,13 +78026,13 @@
     </row>
     <row r="3754" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3754" s="1" t="s">
-        <v>4488</v>
+        <v>4502</v>
       </c>
       <c r="B3754" s="1" t="s">
-        <v>4448</v>
+        <v>4449</v>
       </c>
       <c r="C3754" s="1" t="s">
-        <v>4449</v>
+        <v>4450</v>
       </c>
       <c r="D3754" s="1">
         <v>3754</v>
@@ -78043,13 +78043,13 @@
     </row>
     <row r="3755" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3755" s="1" t="s">
-        <v>4489</v>
+        <v>4503</v>
       </c>
       <c r="B3755" s="1" t="s">
-        <v>4490</v>
+        <v>4504</v>
       </c>
       <c r="C3755" s="1" t="s">
-        <v>4601</v>
+        <v>4505</v>
       </c>
       <c r="D3755" s="1">
         <v>3755</v>
@@ -78060,13 +78060,13 @@
     </row>
     <row r="3756" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3756" s="1" t="s">
-        <v>4491</v>
+        <v>4506</v>
       </c>
       <c r="B3756" s="1" t="s">
-        <v>4448</v>
+        <v>4449</v>
       </c>
       <c r="C3756" s="1" t="s">
-        <v>4449</v>
+        <v>4450</v>
       </c>
       <c r="D3756" s="1">
         <v>3756</v>
@@ -78077,13 +78077,13 @@
     </row>
     <row r="3757" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3757" s="1" t="s">
-        <v>4492</v>
+        <v>4507</v>
       </c>
       <c r="B3757" s="1" t="s">
-        <v>4493</v>
+        <v>4508</v>
       </c>
       <c r="C3757" s="1" t="s">
-        <v>4602</v>
+        <v>4509</v>
       </c>
       <c r="D3757" s="1">
         <v>3757</v>
@@ -78094,13 +78094,13 @@
     </row>
     <row r="3758" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3758" s="1" t="s">
-        <v>4494</v>
+        <v>4510</v>
       </c>
       <c r="B3758" s="1" t="s">
-        <v>4448</v>
+        <v>4449</v>
       </c>
       <c r="C3758" s="1" t="s">
-        <v>4449</v>
+        <v>4450</v>
       </c>
       <c r="D3758" s="1">
         <v>3758</v>
@@ -78111,13 +78111,13 @@
     </row>
     <row r="3759" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3759" s="1" t="s">
-        <v>4495</v>
+        <v>4511</v>
       </c>
       <c r="B3759" s="1" t="s">
-        <v>4496</v>
+        <v>4512</v>
       </c>
       <c r="C3759" s="1" t="s">
-        <v>4603</v>
+        <v>4513</v>
       </c>
       <c r="D3759" s="1">
         <v>3759</v>
@@ -78128,13 +78128,13 @@
     </row>
     <row r="3760" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3760" s="1" t="s">
-        <v>4497</v>
+        <v>4514</v>
       </c>
       <c r="B3760" s="1" t="s">
-        <v>4448</v>
+        <v>4449</v>
       </c>
       <c r="C3760" s="1" t="s">
-        <v>4449</v>
+        <v>4450</v>
       </c>
       <c r="D3760" s="1">
         <v>3760</v>
@@ -78145,13 +78145,13 @@
     </row>
     <row r="3761" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3761" s="1" t="s">
-        <v>4498</v>
+        <v>4515</v>
       </c>
       <c r="B3761" s="1" t="s">
-        <v>4499</v>
+        <v>4516</v>
       </c>
       <c r="C3761" s="1" t="s">
-        <v>4604</v>
+        <v>4517</v>
       </c>
       <c r="D3761" s="1">
         <v>3761</v>
@@ -78162,13 +78162,13 @@
     </row>
     <row r="3762" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3762" s="1" t="s">
-        <v>4500</v>
+        <v>4518</v>
       </c>
       <c r="B3762" s="1" t="s">
-        <v>4448</v>
+        <v>4449</v>
       </c>
       <c r="C3762" s="1" t="s">
-        <v>4449</v>
+        <v>4450</v>
       </c>
       <c r="D3762" s="1">
         <v>3762</v>
@@ -78179,13 +78179,13 @@
     </row>
     <row r="3763" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3763" s="1" t="s">
-        <v>4501</v>
+        <v>4519</v>
       </c>
       <c r="B3763" s="1" t="s">
-        <v>4502</v>
+        <v>4520</v>
       </c>
       <c r="C3763" s="1" t="s">
-        <v>4605</v>
+        <v>4521</v>
       </c>
       <c r="D3763" s="1">
         <v>3763</v>
@@ -78196,13 +78196,13 @@
     </row>
     <row r="3764" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3764" s="1" t="s">
-        <v>4503</v>
+        <v>4522</v>
       </c>
       <c r="B3764" s="1" t="s">
-        <v>4448</v>
+        <v>4449</v>
       </c>
       <c r="C3764" s="1" t="s">
-        <v>4449</v>
+        <v>4450</v>
       </c>
       <c r="D3764" s="1">
         <v>3764</v>
@@ -78213,13 +78213,13 @@
     </row>
     <row r="3765" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3765" s="1" t="s">
-        <v>4504</v>
+        <v>4523</v>
       </c>
       <c r="B3765" s="1" t="s">
-        <v>4505</v>
+        <v>4524</v>
       </c>
       <c r="C3765" s="1" t="s">
-        <v>4606</v>
+        <v>4525</v>
       </c>
       <c r="D3765" s="1">
         <v>3765</v>
@@ -78230,13 +78230,13 @@
     </row>
     <row r="3766" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3766" s="1" t="s">
-        <v>4506</v>
+        <v>4526</v>
       </c>
       <c r="B3766" s="1" t="s">
-        <v>4448</v>
+        <v>4449</v>
       </c>
       <c r="C3766" s="1" t="s">
-        <v>4449</v>
+        <v>4450</v>
       </c>
       <c r="D3766" s="1">
         <v>3766</v>
@@ -78247,13 +78247,13 @@
     </row>
     <row r="3767" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3767" s="1" t="s">
-        <v>4507</v>
+        <v>4527</v>
       </c>
       <c r="B3767" s="1" t="s">
-        <v>4508</v>
+        <v>4528</v>
       </c>
       <c r="C3767" s="1" t="s">
-        <v>4607</v>
+        <v>4529</v>
       </c>
       <c r="D3767" s="1">
         <v>3767</v>
@@ -78264,13 +78264,13 @@
     </row>
     <row r="3768" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3768" s="1" t="s">
-        <v>4509</v>
+        <v>4530</v>
       </c>
       <c r="B3768" s="1" t="s">
-        <v>4448</v>
+        <v>4449</v>
       </c>
       <c r="C3768" s="1" t="s">
-        <v>4449</v>
+        <v>4450</v>
       </c>
       <c r="D3768" s="1">
         <v>3768</v>
@@ -78281,13 +78281,13 @@
     </row>
     <row r="3769" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3769" s="1" t="s">
-        <v>4510</v>
+        <v>4531</v>
       </c>
       <c r="B3769" s="1" t="s">
-        <v>4511</v>
+        <v>4532</v>
       </c>
       <c r="C3769" s="1" t="s">
-        <v>4608</v>
+        <v>4533</v>
       </c>
       <c r="D3769" s="1">
         <v>3769</v>
@@ -78298,13 +78298,13 @@
     </row>
     <row r="3770" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3770" s="1" t="s">
-        <v>4512</v>
+        <v>4534</v>
       </c>
       <c r="B3770" s="1" t="s">
-        <v>4448</v>
+        <v>4449</v>
       </c>
       <c r="C3770" s="1" t="s">
-        <v>4449</v>
+        <v>4450</v>
       </c>
       <c r="D3770" s="1">
         <v>3770</v>
@@ -78315,13 +78315,13 @@
     </row>
     <row r="3771" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3771" s="1" t="s">
-        <v>4513</v>
+        <v>4535</v>
       </c>
       <c r="B3771" s="1" t="s">
-        <v>4514</v>
+        <v>4536</v>
       </c>
       <c r="C3771" s="1" t="s">
-        <v>4609</v>
+        <v>4537</v>
       </c>
       <c r="D3771" s="1">
         <v>3771</v>
@@ -78332,13 +78332,13 @@
     </row>
     <row r="3772" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3772" s="1" t="s">
-        <v>4515</v>
+        <v>4538</v>
       </c>
       <c r="B3772" s="1" t="s">
-        <v>4448</v>
+        <v>4449</v>
       </c>
       <c r="C3772" s="1" t="s">
-        <v>4449</v>
+        <v>4450</v>
       </c>
       <c r="D3772" s="1">
         <v>3772</v>
@@ -78349,13 +78349,13 @@
     </row>
     <row r="3773" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3773" s="1" t="s">
-        <v>4516</v>
+        <v>4539</v>
       </c>
       <c r="B3773" s="1" t="s">
-        <v>4517</v>
+        <v>4540</v>
       </c>
       <c r="C3773" s="1" t="s">
-        <v>4610</v>
+        <v>4541</v>
       </c>
       <c r="D3773" s="1">
         <v>3773</v>
@@ -78366,13 +78366,13 @@
     </row>
     <row r="3774" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3774" s="1" t="s">
-        <v>4518</v>
+        <v>4542</v>
       </c>
       <c r="B3774" s="1" t="s">
-        <v>4448</v>
+        <v>4449</v>
       </c>
       <c r="C3774" s="1" t="s">
-        <v>4449</v>
+        <v>4450</v>
       </c>
       <c r="D3774" s="1">
         <v>3774</v>
@@ -78383,13 +78383,13 @@
     </row>
     <row r="3775" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3775" s="1" t="s">
-        <v>4519</v>
+        <v>4543</v>
       </c>
       <c r="B3775" s="1" t="s">
-        <v>4520</v>
+        <v>4544</v>
       </c>
       <c r="C3775" s="1" t="s">
-        <v>4611</v>
+        <v>4545</v>
       </c>
       <c r="D3775" s="1">
         <v>3775</v>
@@ -78400,13 +78400,13 @@
     </row>
     <row r="3776" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3776" s="1" t="s">
-        <v>4521</v>
+        <v>4546</v>
       </c>
       <c r="B3776" s="1" t="s">
-        <v>4448</v>
+        <v>4449</v>
       </c>
       <c r="C3776" s="1" t="s">
-        <v>4449</v>
+        <v>4450</v>
       </c>
       <c r="D3776" s="1">
         <v>3776</v>
@@ -78417,13 +78417,13 @@
     </row>
     <row r="3777" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3777" s="1" t="s">
-        <v>4522</v>
+        <v>4547</v>
       </c>
       <c r="B3777" s="1" t="s">
-        <v>4523</v>
+        <v>4548</v>
       </c>
       <c r="C3777" s="1" t="s">
-        <v>4612</v>
+        <v>4549</v>
       </c>
       <c r="D3777" s="1">
         <v>3777</v>
@@ -78434,13 +78434,13 @@
     </row>
     <row r="3778" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3778" s="1" t="s">
-        <v>4524</v>
+        <v>4550</v>
       </c>
       <c r="B3778" s="1" t="s">
-        <v>4448</v>
+        <v>4449</v>
       </c>
       <c r="C3778" s="1" t="s">
-        <v>4449</v>
+        <v>4450</v>
       </c>
       <c r="D3778" s="1">
         <v>3778</v>
@@ -78451,13 +78451,13 @@
     </row>
     <row r="3779" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3779" s="1" t="s">
-        <v>4525</v>
+        <v>4551</v>
       </c>
       <c r="B3779" s="1" t="s">
-        <v>4526</v>
+        <v>4552</v>
       </c>
       <c r="C3779" s="1" t="s">
-        <v>4613</v>
+        <v>4553</v>
       </c>
       <c r="D3779" s="1">
         <v>3779</v>
@@ -78468,13 +78468,13 @@
     </row>
     <row r="3780" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3780" s="1" t="s">
-        <v>4527</v>
+        <v>4554</v>
       </c>
       <c r="B3780" s="1" t="s">
-        <v>4448</v>
+        <v>4449</v>
       </c>
       <c r="C3780" s="1" t="s">
-        <v>4449</v>
+        <v>4450</v>
       </c>
       <c r="D3780" s="1">
         <v>3780</v>
@@ -78485,13 +78485,13 @@
     </row>
     <row r="3781" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3781" s="1" t="s">
-        <v>4528</v>
+        <v>4555</v>
       </c>
       <c r="B3781" s="1" t="s">
-        <v>4529</v>
+        <v>4556</v>
       </c>
       <c r="C3781" s="1" t="s">
-        <v>4614</v>
+        <v>4557</v>
       </c>
       <c r="D3781" s="1">
         <v>3781</v>
@@ -78502,13 +78502,13 @@
     </row>
     <row r="3782" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3782" s="1" t="s">
-        <v>4530</v>
+        <v>4558</v>
       </c>
       <c r="B3782" s="1" t="s">
-        <v>4448</v>
+        <v>4449</v>
       </c>
       <c r="C3782" s="1" t="s">
-        <v>4449</v>
+        <v>4450</v>
       </c>
       <c r="D3782" s="1">
         <v>3782</v>
@@ -78519,13 +78519,13 @@
     </row>
     <row r="3783" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3783" s="1" t="s">
-        <v>4531</v>
+        <v>4559</v>
       </c>
       <c r="B3783" s="1" t="s">
-        <v>4532</v>
+        <v>4560</v>
       </c>
       <c r="C3783" s="1" t="s">
-        <v>4615</v>
+        <v>4561</v>
       </c>
       <c r="D3783" s="1">
         <v>3783</v>
@@ -78536,13 +78536,13 @@
     </row>
     <row r="3784" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3784" s="1" t="s">
-        <v>4533</v>
+        <v>4562</v>
       </c>
       <c r="B3784" s="1" t="s">
-        <v>4448</v>
+        <v>4449</v>
       </c>
       <c r="C3784" s="1" t="s">
-        <v>4449</v>
+        <v>4450</v>
       </c>
       <c r="D3784" s="1">
         <v>3784</v>
@@ -78553,13 +78553,13 @@
     </row>
     <row r="3785" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3785" s="1" t="s">
-        <v>4534</v>
+        <v>4563</v>
       </c>
       <c r="B3785" s="1" t="s">
-        <v>4535</v>
+        <v>4564</v>
       </c>
       <c r="C3785" s="1" t="s">
-        <v>4536</v>
+        <v>4565</v>
       </c>
       <c r="D3785" s="1">
         <v>3785</v>
@@ -78570,13 +78570,13 @@
     </row>
     <row r="3786" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3786" s="1" t="s">
-        <v>4537</v>
+        <v>4566</v>
       </c>
       <c r="B3786" s="1" t="s">
-        <v>4538</v>
+        <v>4567</v>
       </c>
       <c r="C3786" s="1" t="s">
-        <v>4539</v>
+        <v>4568</v>
       </c>
       <c r="D3786" s="1">
         <v>3786</v>
@@ -78587,13 +78587,13 @@
     </row>
     <row r="3787" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3787" s="1" t="s">
-        <v>4540</v>
+        <v>4569</v>
       </c>
       <c r="B3787" s="1" t="s">
-        <v>4541</v>
+        <v>4570</v>
       </c>
       <c r="C3787" s="1" t="s">
-        <v>4541</v>
+        <v>4570</v>
       </c>
       <c r="D3787" s="1">
         <v>3787</v>
@@ -78604,13 +78604,13 @@
     </row>
     <row r="3788" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3788" s="1" t="s">
-        <v>4542</v>
+        <v>4571</v>
       </c>
       <c r="B3788" s="1" t="s">
-        <v>4543</v>
+        <v>4572</v>
       </c>
       <c r="C3788" s="1" t="s">
-        <v>4544</v>
+        <v>4573</v>
       </c>
       <c r="D3788" s="1">
         <v>3788</v>
@@ -78621,13 +78621,13 @@
     </row>
     <row r="3789" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3789" s="1" t="s">
-        <v>4545</v>
+        <v>4574</v>
       </c>
       <c r="B3789" s="1" t="s">
-        <v>4546</v>
+        <v>4575</v>
       </c>
       <c r="C3789" s="1" t="s">
-        <v>4547</v>
+        <v>4576</v>
       </c>
       <c r="D3789" s="1">
         <v>3789</v>
@@ -78638,13 +78638,13 @@
     </row>
     <row r="3790" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3790" s="1" t="s">
-        <v>4548</v>
+        <v>4577</v>
       </c>
       <c r="B3790" s="1" t="s">
-        <v>4549</v>
+        <v>4578</v>
       </c>
       <c r="C3790" s="1" t="s">
-        <v>4549</v>
+        <v>4578</v>
       </c>
       <c r="D3790" s="1">
         <v>3790</v>
@@ -78655,13 +78655,13 @@
     </row>
     <row r="3791" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3791" s="1" t="s">
-        <v>4550</v>
+        <v>4579</v>
       </c>
       <c r="B3791" s="1" t="s">
-        <v>4551</v>
+        <v>4580</v>
       </c>
       <c r="C3791" s="1" t="s">
-        <v>4551</v>
+        <v>4580</v>
       </c>
       <c r="D3791" s="1">
         <v>3791</v>
@@ -78672,13 +78672,13 @@
     </row>
     <row r="3792" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3792" s="1" t="s">
-        <v>4552</v>
+        <v>4581</v>
       </c>
       <c r="B3792" s="1" t="s">
-        <v>4553</v>
+        <v>4582</v>
       </c>
       <c r="C3792" s="1" t="s">
-        <v>4553</v>
+        <v>4582</v>
       </c>
       <c r="D3792" s="1">
         <v>3792</v>
@@ -78689,13 +78689,13 @@
     </row>
     <row r="3793" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3793" s="1" t="s">
-        <v>4554</v>
+        <v>4583</v>
       </c>
       <c r="B3793" s="1" t="s">
-        <v>4555</v>
+        <v>4584</v>
       </c>
       <c r="C3793" s="1" t="s">
-        <v>4555</v>
+        <v>4584</v>
       </c>
       <c r="D3793" s="1">
         <v>3793</v>
@@ -78706,13 +78706,13 @@
     </row>
     <row r="3794" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3794" s="1" t="s">
-        <v>4556</v>
+        <v>4585</v>
       </c>
       <c r="B3794" s="1" t="s">
         <v>4446</v>
       </c>
       <c r="C3794" s="1" t="s">
-        <v>4587</v>
+        <v>4447</v>
       </c>
       <c r="D3794" s="1">
         <v>3794</v>
@@ -78723,13 +78723,13 @@
     </row>
     <row r="3795" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3795" s="1" t="s">
-        <v>4557</v>
+        <v>4586</v>
       </c>
       <c r="B3795" s="1" t="s">
-        <v>4451</v>
+        <v>4452</v>
       </c>
       <c r="C3795" s="1" t="s">
-        <v>4588</v>
+        <v>4453</v>
       </c>
       <c r="D3795" s="1">
         <v>3795</v>
@@ -78740,13 +78740,13 @@
     </row>
     <row r="3796" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3796" s="1" t="s">
-        <v>4558</v>
+        <v>4587</v>
       </c>
       <c r="B3796" s="1" t="s">
-        <v>4454</v>
+        <v>4456</v>
       </c>
       <c r="C3796" s="1" t="s">
-        <v>4589</v>
+        <v>4457</v>
       </c>
       <c r="D3796" s="1">
         <v>3796</v>
@@ -78757,13 +78757,13 @@
     </row>
     <row r="3797" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3797" s="1" t="s">
-        <v>4559</v>
+        <v>4588</v>
       </c>
       <c r="B3797" s="1" t="s">
-        <v>4457</v>
+        <v>4460</v>
       </c>
       <c r="C3797" s="1" t="s">
-        <v>4590</v>
+        <v>4461</v>
       </c>
       <c r="D3797" s="1">
         <v>3797</v>
@@ -78774,13 +78774,13 @@
     </row>
     <row r="3798" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3798" s="1" t="s">
-        <v>4560</v>
+        <v>4589</v>
       </c>
       <c r="B3798" s="1" t="s">
-        <v>4460</v>
+        <v>4464</v>
       </c>
       <c r="C3798" s="1" t="s">
-        <v>4591</v>
+        <v>4465</v>
       </c>
       <c r="D3798" s="1">
         <v>3798</v>
@@ -78791,13 +78791,13 @@
     </row>
     <row r="3799" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3799" s="1" t="s">
-        <v>4561</v>
+        <v>4590</v>
       </c>
       <c r="B3799" s="1" t="s">
-        <v>4463</v>
+        <v>4468</v>
       </c>
       <c r="C3799" s="1" t="s">
-        <v>4592</v>
+        <v>4469</v>
       </c>
       <c r="D3799" s="1">
         <v>3799</v>
@@ -78808,13 +78808,13 @@
     </row>
     <row r="3800" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3800" s="1" t="s">
-        <v>4562</v>
+        <v>4591</v>
       </c>
       <c r="B3800" s="1" t="s">
-        <v>4466</v>
+        <v>4472</v>
       </c>
       <c r="C3800" s="1" t="s">
-        <v>4593</v>
+        <v>4473</v>
       </c>
       <c r="D3800" s="1">
         <v>3800</v>
@@ -78825,13 +78825,13 @@
     </row>
     <row r="3801" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3801" s="1" t="s">
-        <v>4563</v>
+        <v>4592</v>
       </c>
       <c r="B3801" s="1" t="s">
-        <v>4469</v>
+        <v>4476</v>
       </c>
       <c r="C3801" s="1" t="s">
-        <v>4594</v>
+        <v>4477</v>
       </c>
       <c r="D3801" s="1">
         <v>3801</v>
@@ -78842,13 +78842,13 @@
     </row>
     <row r="3802" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3802" s="1" t="s">
-        <v>4564</v>
+        <v>4593</v>
       </c>
       <c r="B3802" s="1" t="s">
-        <v>4472</v>
+        <v>4480</v>
       </c>
       <c r="C3802" s="1" t="s">
-        <v>4595</v>
+        <v>4481</v>
       </c>
       <c r="D3802" s="1">
         <v>3802</v>
@@ -78859,13 +78859,13 @@
     </row>
     <row r="3803" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3803" s="1" t="s">
-        <v>4565</v>
+        <v>4594</v>
       </c>
       <c r="B3803" s="1" t="s">
-        <v>4475</v>
+        <v>4484</v>
       </c>
       <c r="C3803" s="1" t="s">
-        <v>4596</v>
+        <v>4485</v>
       </c>
       <c r="D3803" s="1">
         <v>3803</v>
@@ -78876,13 +78876,13 @@
     </row>
     <row r="3804" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3804" s="1" t="s">
-        <v>4566</v>
+        <v>4595</v>
       </c>
       <c r="B3804" s="1" t="s">
-        <v>4478</v>
+        <v>4488</v>
       </c>
       <c r="C3804" s="1" t="s">
-        <v>4597</v>
+        <v>4489</v>
       </c>
       <c r="D3804" s="1">
         <v>3804</v>
@@ -78893,13 +78893,13 @@
     </row>
     <row r="3805" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3805" s="1" t="s">
-        <v>4567</v>
+        <v>4596</v>
       </c>
       <c r="B3805" s="1" t="s">
-        <v>4481</v>
+        <v>4492</v>
       </c>
       <c r="C3805" s="1" t="s">
-        <v>4598</v>
+        <v>4493</v>
       </c>
       <c r="D3805" s="1">
         <v>3805</v>
@@ -78910,13 +78910,13 @@
     </row>
     <row r="3806" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3806" s="1" t="s">
-        <v>4568</v>
+        <v>4597</v>
       </c>
       <c r="B3806" s="1" t="s">
-        <v>4484</v>
+        <v>4496</v>
       </c>
       <c r="C3806" s="1" t="s">
-        <v>4599</v>
+        <v>4497</v>
       </c>
       <c r="D3806" s="1">
         <v>3806</v>
@@ -78927,13 +78927,13 @@
     </row>
     <row r="3807" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3807" s="1" t="s">
-        <v>4569</v>
+        <v>4598</v>
       </c>
       <c r="B3807" s="1" t="s">
-        <v>4487</v>
+        <v>4500</v>
       </c>
       <c r="C3807" s="1" t="s">
-        <v>4600</v>
+        <v>4501</v>
       </c>
       <c r="D3807" s="1">
         <v>3807</v>
@@ -78944,13 +78944,13 @@
     </row>
     <row r="3808" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3808" s="1" t="s">
-        <v>4570</v>
+        <v>4599</v>
       </c>
       <c r="B3808" s="1" t="s">
-        <v>4490</v>
+        <v>4504</v>
       </c>
       <c r="C3808" s="1" t="s">
-        <v>4601</v>
+        <v>4505</v>
       </c>
       <c r="D3808" s="1">
         <v>3808</v>
@@ -78961,13 +78961,13 @@
     </row>
     <row r="3809" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3809" s="1" t="s">
-        <v>4571</v>
+        <v>4600</v>
       </c>
       <c r="B3809" s="1" t="s">
-        <v>4493</v>
+        <v>4508</v>
       </c>
       <c r="C3809" s="1" t="s">
-        <v>4602</v>
+        <v>4509</v>
       </c>
       <c r="D3809" s="1">
         <v>3809</v>
@@ -78978,13 +78978,13 @@
     </row>
     <row r="3810" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3810" s="1" t="s">
-        <v>4572</v>
+        <v>4601</v>
       </c>
       <c r="B3810" s="1" t="s">
-        <v>4496</v>
+        <v>4512</v>
       </c>
       <c r="C3810" s="1" t="s">
-        <v>4603</v>
+        <v>4513</v>
       </c>
       <c r="D3810" s="1">
         <v>3810</v>
@@ -78995,13 +78995,13 @@
     </row>
     <row r="3811" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3811" s="1" t="s">
-        <v>4573</v>
+        <v>4602</v>
       </c>
       <c r="B3811" s="1" t="s">
-        <v>4499</v>
+        <v>4516</v>
       </c>
       <c r="C3811" s="1" t="s">
-        <v>4604</v>
+        <v>4517</v>
       </c>
       <c r="D3811" s="1">
         <v>3811</v>
@@ -79012,13 +79012,13 @@
     </row>
     <row r="3812" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3812" s="1" t="s">
-        <v>4574</v>
+        <v>4603</v>
       </c>
       <c r="B3812" s="1" t="s">
-        <v>4502</v>
+        <v>4520</v>
       </c>
       <c r="C3812" s="1" t="s">
-        <v>4605</v>
+        <v>4521</v>
       </c>
       <c r="D3812" s="1">
         <v>3812</v>
@@ -79029,13 +79029,13 @@
     </row>
     <row r="3813" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3813" s="1" t="s">
-        <v>4575</v>
+        <v>4604</v>
       </c>
       <c r="B3813" s="1" t="s">
-        <v>4505</v>
+        <v>4524</v>
       </c>
       <c r="C3813" s="1" t="s">
-        <v>4606</v>
+        <v>4525</v>
       </c>
       <c r="D3813" s="1">
         <v>3813</v>
@@ -79046,13 +79046,13 @@
     </row>
     <row r="3814" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3814" s="1" t="s">
-        <v>4576</v>
+        <v>4605</v>
       </c>
       <c r="B3814" s="1" t="s">
-        <v>4508</v>
+        <v>4528</v>
       </c>
       <c r="C3814" s="1" t="s">
-        <v>4607</v>
+        <v>4529</v>
       </c>
       <c r="D3814" s="1">
         <v>3814</v>
@@ -79063,13 +79063,13 @@
     </row>
     <row r="3815" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3815" s="1" t="s">
-        <v>4577</v>
+        <v>4606</v>
       </c>
       <c r="B3815" s="1" t="s">
-        <v>4511</v>
+        <v>4532</v>
       </c>
       <c r="C3815" s="1" t="s">
-        <v>4608</v>
+        <v>4533</v>
       </c>
       <c r="D3815" s="1">
         <v>3815</v>
@@ -79080,13 +79080,13 @@
     </row>
     <row r="3816" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3816" s="1" t="s">
-        <v>4578</v>
+        <v>4607</v>
       </c>
       <c r="B3816" s="1" t="s">
-        <v>4514</v>
+        <v>4536</v>
       </c>
       <c r="C3816" s="1" t="s">
-        <v>4609</v>
+        <v>4537</v>
       </c>
       <c r="D3816" s="1">
         <v>3816</v>
@@ -79097,13 +79097,13 @@
     </row>
     <row r="3817" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3817" s="1" t="s">
-        <v>4579</v>
+        <v>4608</v>
       </c>
       <c r="B3817" s="1" t="s">
-        <v>4517</v>
+        <v>4540</v>
       </c>
       <c r="C3817" s="1" t="s">
-        <v>4610</v>
+        <v>4541</v>
       </c>
       <c r="D3817" s="1">
         <v>3817</v>
@@ -79114,13 +79114,13 @@
     </row>
     <row r="3818" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3818" s="1" t="s">
-        <v>4580</v>
+        <v>4609</v>
       </c>
       <c r="B3818" s="1" t="s">
-        <v>4520</v>
+        <v>4544</v>
       </c>
       <c r="C3818" s="1" t="s">
-        <v>4611</v>
+        <v>4545</v>
       </c>
       <c r="D3818" s="1">
         <v>3818</v>
@@ -79131,13 +79131,13 @@
     </row>
     <row r="3819" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3819" s="1" t="s">
-        <v>4581</v>
+        <v>4610</v>
       </c>
       <c r="B3819" s="1" t="s">
-        <v>4523</v>
+        <v>4548</v>
       </c>
       <c r="C3819" s="1" t="s">
-        <v>4612</v>
+        <v>4549</v>
       </c>
       <c r="D3819" s="1">
         <v>3819</v>
@@ -79148,13 +79148,13 @@
     </row>
     <row r="3820" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3820" s="1" t="s">
-        <v>4582</v>
+        <v>4611</v>
       </c>
       <c r="B3820" s="1" t="s">
-        <v>4526</v>
+        <v>4552</v>
       </c>
       <c r="C3820" s="1" t="s">
-        <v>4613</v>
+        <v>4553</v>
       </c>
       <c r="D3820" s="1">
         <v>3820</v>
@@ -79165,13 +79165,13 @@
     </row>
     <row r="3821" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3821" s="1" t="s">
-        <v>4583</v>
+        <v>4612</v>
       </c>
       <c r="B3821" s="1" t="s">
-        <v>4529</v>
+        <v>4556</v>
       </c>
       <c r="C3821" s="1" t="s">
-        <v>4614</v>
+        <v>4557</v>
       </c>
       <c r="D3821" s="1">
         <v>3821</v>
@@ -79182,13 +79182,13 @@
     </row>
     <row r="3822" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3822" s="1" t="s">
-        <v>4584</v>
+        <v>4613</v>
       </c>
       <c r="B3822" s="1" t="s">
-        <v>4532</v>
+        <v>4560</v>
       </c>
       <c r="C3822" s="1" t="s">
-        <v>4615</v>
+        <v>4561</v>
       </c>
       <c r="D3822" s="1">
         <v>3822</v>
@@ -79199,13 +79199,13 @@
     </row>
     <row r="3823" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3823" s="1" t="s">
-        <v>4585</v>
+        <v>4614</v>
       </c>
       <c r="B3823" s="1" t="s">
-        <v>4535</v>
+        <v>4564</v>
       </c>
       <c r="C3823" s="1" t="s">
-        <v>4536</v>
+        <v>4565</v>
       </c>
       <c r="D3823" s="1">
         <v>3823</v>
@@ -79216,13 +79216,13 @@
     </row>
     <row r="3824" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3824" s="1" t="s">
-        <v>4586</v>
+        <v>4615</v>
       </c>
       <c r="B3824" s="1" t="s">
-        <v>4543</v>
+        <v>4572</v>
       </c>
       <c r="C3824" s="1" t="s">
-        <v>4544</v>
+        <v>4573</v>
       </c>
       <c r="D3824" s="1">
         <v>3824</v>
